--- a/Invoices/files/so_invoices.xlsx
+++ b/Invoices/files/so_invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wb_odoo_external_api\invoices_walmart\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wb_odoo_external_api\Invoices\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44CB053-0559-4039-9253-3DBF72010CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F76599-A79E-4710-804B-94395E35A6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5D941F05-6685-4D6A-8FCD-7985621E4B9D}"/>
+    <workbookView xWindow="20370" yWindow="-4905" windowWidth="29040" windowHeight="15990" xr2:uid="{5D941F05-6685-4D6A-8FCD-7985621E4B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,2982 +25,2904 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t>so_name</t>
   </si>
   <si>
-    <t>SO2283240</t>
-  </si>
-  <si>
-    <t>SO2283239</t>
-  </si>
-  <si>
-    <t>SO2283230</t>
-  </si>
-  <si>
-    <t>SO2283217</t>
-  </si>
-  <si>
-    <t>SO2283202</t>
-  </si>
-  <si>
-    <t>SO2283185</t>
-  </si>
-  <si>
-    <t>SO2283168</t>
-  </si>
-  <si>
-    <t>SO2283166</t>
-  </si>
-  <si>
-    <t>SO2283150</t>
-  </si>
-  <si>
-    <t>SO2283149</t>
-  </si>
-  <si>
-    <t>SO2283148</t>
-  </si>
-  <si>
-    <t>SO2283147</t>
-  </si>
-  <si>
-    <t>SO2283124</t>
-  </si>
-  <si>
-    <t>SO2283123</t>
-  </si>
-  <si>
-    <t>SO2283122</t>
-  </si>
-  <si>
-    <t>SO2283121</t>
-  </si>
-  <si>
-    <t>SO2283120</t>
-  </si>
-  <si>
-    <t>SO2283119</t>
-  </si>
-  <si>
-    <t>SO2283118</t>
-  </si>
-  <si>
-    <t>SO2283101</t>
-  </si>
-  <si>
-    <t>SO2283100</t>
-  </si>
-  <si>
-    <t>SO2283099</t>
-  </si>
-  <si>
-    <t>SO2283076</t>
-  </si>
-  <si>
-    <t>SO2283058</t>
-  </si>
-  <si>
-    <t>SO2283035</t>
-  </si>
-  <si>
-    <t>SO2283034</t>
-  </si>
-  <si>
-    <t>SO2283024</t>
-  </si>
-  <si>
-    <t>SO2283023</t>
-  </si>
-  <si>
-    <t>SO2283022</t>
-  </si>
-  <si>
-    <t>SO2283005</t>
-  </si>
-  <si>
-    <t>SO2283004</t>
-  </si>
-  <si>
-    <t>SO2282985</t>
-  </si>
-  <si>
-    <t>SO2282984</t>
-  </si>
-  <si>
-    <t>SO2282982</t>
-  </si>
-  <si>
-    <t>SO2282979</t>
-  </si>
-  <si>
-    <t>SO2282977</t>
-  </si>
-  <si>
-    <t>SO2282967</t>
-  </si>
-  <si>
-    <t>SO2282950</t>
-  </si>
-  <si>
-    <t>SO2282936</t>
-  </si>
-  <si>
-    <t>SO2282934</t>
-  </si>
-  <si>
-    <t>SO2282903</t>
-  </si>
-  <si>
-    <t>SO2282894</t>
-  </si>
-  <si>
-    <t>SO2282893</t>
-  </si>
-  <si>
-    <t>SO2282877</t>
-  </si>
-  <si>
-    <t>SO2282860</t>
-  </si>
-  <si>
-    <t>SO2282859</t>
-  </si>
-  <si>
-    <t>SO2282858</t>
-  </si>
-  <si>
-    <t>SO2282832</t>
-  </si>
-  <si>
-    <t>SO2282831</t>
-  </si>
-  <si>
-    <t>SO2282830</t>
-  </si>
-  <si>
-    <t>SO2282829</t>
-  </si>
-  <si>
-    <t>SO2282797</t>
-  </si>
-  <si>
-    <t>SO2282796</t>
-  </si>
-  <si>
-    <t>SO2282781</t>
-  </si>
-  <si>
-    <t>SO2282780</t>
-  </si>
-  <si>
-    <t>SO2282779</t>
-  </si>
-  <si>
-    <t>SO2282755</t>
-  </si>
-  <si>
-    <t>SO2282741</t>
-  </si>
-  <si>
-    <t>SO2282740</t>
-  </si>
-  <si>
-    <t>SO2282739</t>
-  </si>
-  <si>
-    <t>SO2282707</t>
-  </si>
-  <si>
-    <t>SO2282677</t>
-  </si>
-  <si>
-    <t>SO2282669</t>
-  </si>
-  <si>
-    <t>SO2282668</t>
-  </si>
-  <si>
-    <t>SO2281526</t>
-  </si>
-  <si>
-    <t>SO2282637</t>
-  </si>
-  <si>
-    <t>SO2282636</t>
-  </si>
-  <si>
-    <t>SO2282608</t>
-  </si>
-  <si>
-    <t>SO2282607</t>
-  </si>
-  <si>
-    <t>SO2282590</t>
-  </si>
-  <si>
-    <t>SO2282557</t>
-  </si>
-  <si>
-    <t>SO2282532</t>
-  </si>
-  <si>
-    <t>SO2282523</t>
-  </si>
-  <si>
-    <t>SO2282522</t>
-  </si>
-  <si>
-    <t>SO2282489</t>
-  </si>
-  <si>
-    <t>SO2282480</t>
-  </si>
-  <si>
-    <t>SO2282479</t>
-  </si>
-  <si>
-    <t>SO2282478</t>
-  </si>
-  <si>
-    <t>SO2282461</t>
-  </si>
-  <si>
-    <t>SO2282451</t>
-  </si>
-  <si>
-    <t>SO2282449</t>
-  </si>
-  <si>
-    <t>SO2280403</t>
-  </si>
-  <si>
-    <t>SO2282420</t>
-  </si>
-  <si>
-    <t>SO2282399</t>
-  </si>
-  <si>
-    <t>SO2282398</t>
-  </si>
-  <si>
-    <t>SO2282367</t>
-  </si>
-  <si>
-    <t>SO2282366</t>
-  </si>
-  <si>
-    <t>SO2282357</t>
-  </si>
-  <si>
-    <t>SO2282326</t>
-  </si>
-  <si>
-    <t>SO2282306</t>
-  </si>
-  <si>
-    <t>SO2266027</t>
-  </si>
-  <si>
-    <t>SO2270582</t>
-  </si>
-  <si>
-    <t>SO2282293</t>
-  </si>
-  <si>
-    <t>SO2282280</t>
-  </si>
-  <si>
-    <t>SO2282273</t>
-  </si>
-  <si>
-    <t>SO2282252</t>
-  </si>
-  <si>
-    <t>SO2282250</t>
-  </si>
-  <si>
-    <t>SO2282234</t>
-  </si>
-  <si>
-    <t>SO2282229</t>
-  </si>
-  <si>
-    <t>SO2282228</t>
-  </si>
-  <si>
-    <t>SO2282181</t>
-  </si>
-  <si>
-    <t>SO2282165</t>
-  </si>
-  <si>
-    <t>SO2282147</t>
-  </si>
-  <si>
-    <t>SO2282146</t>
-  </si>
-  <si>
-    <t>SO2282145</t>
-  </si>
-  <si>
-    <t>SO2282132</t>
-  </si>
-  <si>
-    <t>SO2282131</t>
-  </si>
-  <si>
-    <t>SO2282128</t>
-  </si>
-  <si>
-    <t>SO2282095</t>
-  </si>
-  <si>
-    <t>SO2282036</t>
-  </si>
-  <si>
-    <t>SO2282025</t>
-  </si>
-  <si>
-    <t>SO2281994</t>
-  </si>
-  <si>
-    <t>SO2281982</t>
-  </si>
-  <si>
-    <t>SO2281976</t>
-  </si>
-  <si>
-    <t>SO2281954</t>
-  </si>
-  <si>
-    <t>SO2281953</t>
-  </si>
-  <si>
-    <t>SO2281936</t>
-  </si>
-  <si>
-    <t>SO2281935</t>
-  </si>
-  <si>
-    <t>SO2281934</t>
-  </si>
-  <si>
-    <t>SO2281906</t>
-  </si>
-  <si>
-    <t>SO2281895</t>
-  </si>
-  <si>
-    <t>SO2281879</t>
-  </si>
-  <si>
-    <t>SO2281878</t>
-  </si>
-  <si>
-    <t>SO2281857</t>
-  </si>
-  <si>
-    <t>SO2281856</t>
-  </si>
-  <si>
-    <t>SO2281845</t>
-  </si>
-  <si>
-    <t>SO2281844</t>
-  </si>
-  <si>
-    <t>SO2281842</t>
-  </si>
-  <si>
-    <t>SO2281786</t>
-  </si>
-  <si>
-    <t>SO2281785</t>
-  </si>
-  <si>
-    <t>SO2281774</t>
-  </si>
-  <si>
-    <t>SO2281755</t>
-  </si>
-  <si>
-    <t>SO2281720</t>
-  </si>
-  <si>
-    <t>SO2281696</t>
-  </si>
-  <si>
-    <t>SO2281695</t>
-  </si>
-  <si>
-    <t>SO2281665</t>
-  </si>
-  <si>
-    <t>SO2281631</t>
-  </si>
-  <si>
-    <t>SO2281629</t>
-  </si>
-  <si>
-    <t>SO2281595</t>
-  </si>
-  <si>
-    <t>SO2281594</t>
-  </si>
-  <si>
-    <t>SO2281593</t>
-  </si>
-  <si>
-    <t>SO2281591</t>
-  </si>
-  <si>
-    <t>SO2281578</t>
-  </si>
-  <si>
-    <t>SO2281569</t>
-  </si>
-  <si>
-    <t>SO2281541</t>
-  </si>
-  <si>
-    <t>SO2281528</t>
-  </si>
-  <si>
-    <t>SO2281525</t>
-  </si>
-  <si>
-    <t>SO2281503</t>
-  </si>
-  <si>
-    <t>SO2281502</t>
-  </si>
-  <si>
-    <t>SO2281501</t>
-  </si>
-  <si>
-    <t>SO2281500</t>
-  </si>
-  <si>
-    <t>SO2281499</t>
-  </si>
-  <si>
-    <t>SO2281485</t>
-  </si>
-  <si>
-    <t>SO2281484</t>
-  </si>
-  <si>
-    <t>SO2281476</t>
-  </si>
-  <si>
-    <t>SO2281447</t>
-  </si>
-  <si>
-    <t>SO2281377</t>
-  </si>
-  <si>
-    <t>SO2281369</t>
-  </si>
-  <si>
-    <t>SO2281368</t>
-  </si>
-  <si>
-    <t>SO2281353</t>
-  </si>
-  <si>
-    <t>SO2281352</t>
-  </si>
-  <si>
-    <t>SO2281305</t>
-  </si>
-  <si>
-    <t>SO2281289</t>
-  </si>
-  <si>
-    <t>SO2281288</t>
-  </si>
-  <si>
-    <t>SO2281264</t>
-  </si>
-  <si>
-    <t>SO2281263</t>
-  </si>
-  <si>
-    <t>SO2281221</t>
-  </si>
-  <si>
-    <t>SO2281220</t>
-  </si>
-  <si>
-    <t>SO2281188</t>
-  </si>
-  <si>
-    <t>SO2281182</t>
-  </si>
-  <si>
-    <t>SO2281181</t>
-  </si>
-  <si>
-    <t>SO2281180</t>
-  </si>
-  <si>
-    <t>SO2281135</t>
-  </si>
-  <si>
-    <t>SO2281134</t>
-  </si>
-  <si>
-    <t>SO2281125</t>
-  </si>
-  <si>
-    <t>SO2281124</t>
-  </si>
-  <si>
-    <t>SO2281123</t>
-  </si>
-  <si>
-    <t>SO2281106</t>
-  </si>
-  <si>
-    <t>SO2281105</t>
-  </si>
-  <si>
-    <t>SO2281104</t>
-  </si>
-  <si>
-    <t>SO2281095</t>
-  </si>
-  <si>
-    <t>SO2281085</t>
-  </si>
-  <si>
-    <t>SO2281059</t>
-  </si>
-  <si>
-    <t>SO2281024</t>
-  </si>
-  <si>
-    <t>SO2281014</t>
-  </si>
-  <si>
-    <t>SO2281013</t>
-  </si>
-  <si>
-    <t>SO2281011</t>
-  </si>
-  <si>
-    <t>SO2281010</t>
-  </si>
-  <si>
-    <t>SO2281009</t>
-  </si>
-  <si>
-    <t>SO2281008</t>
-  </si>
-  <si>
-    <t>SO2281007</t>
-  </si>
-  <si>
-    <t>SO2280615</t>
-  </si>
-  <si>
-    <t>SO2280983</t>
-  </si>
-  <si>
-    <t>SO2280969</t>
-  </si>
-  <si>
-    <t>SO2280940</t>
-  </si>
-  <si>
-    <t>SO2280939</t>
-  </si>
-  <si>
-    <t>SO2280929</t>
-  </si>
-  <si>
-    <t>SO2280915</t>
-  </si>
-  <si>
-    <t>SO2280914</t>
-  </si>
-  <si>
-    <t>SO2280913</t>
-  </si>
-  <si>
-    <t>SO2280889</t>
-  </si>
-  <si>
-    <t>SO2280888</t>
-  </si>
-  <si>
-    <t>SO2280887</t>
-  </si>
-  <si>
-    <t>SO2280886</t>
-  </si>
-  <si>
-    <t>SO2280884</t>
-  </si>
-  <si>
-    <t>SO2280859</t>
-  </si>
-  <si>
-    <t>SO2280858</t>
-  </si>
-  <si>
-    <t>SO2280857</t>
-  </si>
-  <si>
-    <t>SO2280856</t>
-  </si>
-  <si>
-    <t>SO2280837</t>
-  </si>
-  <si>
-    <t>SO2280836</t>
-  </si>
-  <si>
-    <t>SO2280835</t>
-  </si>
-  <si>
-    <t>SO2280834</t>
-  </si>
-  <si>
-    <t>SO2280806</t>
-  </si>
-  <si>
-    <t>SO2280805</t>
-  </si>
-  <si>
-    <t>SO2280794</t>
-  </si>
-  <si>
-    <t>SO2280793</t>
-  </si>
-  <si>
-    <t>SO2280747</t>
-  </si>
-  <si>
-    <t>SO2280746</t>
-  </si>
-  <si>
-    <t>SO2280744</t>
-  </si>
-  <si>
-    <t>SO2280709</t>
-  </si>
-  <si>
-    <t>SO2280706</t>
-  </si>
-  <si>
-    <t>SO2280690</t>
-  </si>
-  <si>
-    <t>SO2280689</t>
-  </si>
-  <si>
-    <t>SO2280652</t>
-  </si>
-  <si>
-    <t>SO2280651</t>
-  </si>
-  <si>
-    <t>SO2280633</t>
-  </si>
-  <si>
-    <t>SO2280617</t>
-  </si>
-  <si>
-    <t>SO2280616</t>
-  </si>
-  <si>
-    <t>SO2280614</t>
-  </si>
-  <si>
-    <t>SO2280555</t>
-  </si>
-  <si>
-    <t>SO2280498</t>
-  </si>
-  <si>
-    <t>SO2280476</t>
-  </si>
-  <si>
-    <t>SO2280406</t>
-  </si>
-  <si>
-    <t>SO2280404</t>
-  </si>
-  <si>
-    <t>SO2280402</t>
-  </si>
-  <si>
-    <t>SO2280371</t>
-  </si>
-  <si>
-    <t>SO2280369</t>
-  </si>
-  <si>
-    <t>SO2280341</t>
-  </si>
-  <si>
-    <t>SO2279026</t>
-  </si>
-  <si>
-    <t>SO2280305</t>
-  </si>
-  <si>
-    <t>SO2280300</t>
-  </si>
-  <si>
-    <t>SO2280299</t>
-  </si>
-  <si>
-    <t>SO2280275</t>
-  </si>
-  <si>
-    <t>SO2280274</t>
-  </si>
-  <si>
-    <t>SO2280260</t>
-  </si>
-  <si>
-    <t>SO2280251</t>
-  </si>
-  <si>
-    <t>SO2280250</t>
-  </si>
-  <si>
-    <t>SO2280249</t>
-  </si>
-  <si>
-    <t>SO2280239</t>
-  </si>
-  <si>
-    <t>SO2280212</t>
-  </si>
-  <si>
-    <t>SO2280191</t>
-  </si>
-  <si>
-    <t>SO2280190</t>
-  </si>
-  <si>
-    <t>SO2280169</t>
-  </si>
-  <si>
-    <t>SO2280161</t>
-  </si>
-  <si>
-    <t>SO2280160</t>
-  </si>
-  <si>
-    <t>SO2280132</t>
-  </si>
-  <si>
-    <t>SO2280106</t>
-  </si>
-  <si>
-    <t>SO2280069</t>
-  </si>
-  <si>
-    <t>SO2280048</t>
-  </si>
-  <si>
-    <t>SO2280023</t>
-  </si>
-  <si>
-    <t>SO2280010</t>
-  </si>
-  <si>
-    <t>SO2280009</t>
-  </si>
-  <si>
-    <t>SO2279997</t>
-  </si>
-  <si>
-    <t>SO2279936</t>
-  </si>
-  <si>
-    <t>SO2279894</t>
-  </si>
-  <si>
-    <t>SO2279893</t>
-  </si>
-  <si>
-    <t>SO2279891</t>
-  </si>
-  <si>
-    <t>SO2267058</t>
-  </si>
-  <si>
-    <t>SO2272714</t>
-  </si>
-  <si>
-    <t>SO2279867</t>
-  </si>
-  <si>
-    <t>SO2279865</t>
-  </si>
-  <si>
-    <t>SO2279850</t>
-  </si>
-  <si>
-    <t>SO2279846</t>
-  </si>
-  <si>
-    <t>SO2279845</t>
-  </si>
-  <si>
-    <t>SO2279835</t>
-  </si>
-  <si>
-    <t>SO2279833</t>
-  </si>
-  <si>
-    <t>SO2279832</t>
-  </si>
-  <si>
-    <t>SO2279824</t>
-  </si>
-  <si>
-    <t>SO2279819</t>
-  </si>
-  <si>
-    <t>SO2279818</t>
-  </si>
-  <si>
-    <t>SO2279810</t>
-  </si>
-  <si>
-    <t>SO2279797</t>
-  </si>
-  <si>
-    <t>SO2279796</t>
-  </si>
-  <si>
-    <t>SO2279780</t>
-  </si>
-  <si>
-    <t>SO2279761</t>
-  </si>
-  <si>
-    <t>SO2279743</t>
-  </si>
-  <si>
-    <t>SO2279736</t>
-  </si>
-  <si>
-    <t>SO2279709</t>
-  </si>
-  <si>
-    <t>SO2279708</t>
-  </si>
-  <si>
-    <t>SO2279707</t>
-  </si>
-  <si>
-    <t>SO2279642</t>
-  </si>
-  <si>
-    <t>SO2279641</t>
-  </si>
-  <si>
-    <t>SO2279609</t>
-  </si>
-  <si>
-    <t>SO2279562</t>
-  </si>
-  <si>
-    <t>SO2279561</t>
-  </si>
-  <si>
-    <t>SO2279543</t>
-  </si>
-  <si>
-    <t>SO2279534</t>
-  </si>
-  <si>
-    <t>SO2279508</t>
-  </si>
-  <si>
-    <t>SO2279490</t>
-  </si>
-  <si>
-    <t>SO2279489</t>
-  </si>
-  <si>
-    <t>SO2279456</t>
-  </si>
-  <si>
-    <t>SO2279455</t>
-  </si>
-  <si>
-    <t>SO2279454</t>
-  </si>
-  <si>
-    <t>SO2279443</t>
-  </si>
-  <si>
-    <t>SO2279442</t>
-  </si>
-  <si>
-    <t>SO2279430</t>
-  </si>
-  <si>
-    <t>SO2279398</t>
-  </si>
-  <si>
-    <t>SO2279382</t>
-  </si>
-  <si>
-    <t>SO2279380</t>
-  </si>
-  <si>
-    <t>SO2279350</t>
-  </si>
-  <si>
-    <t>SO2279339</t>
-  </si>
-  <si>
-    <t>SO2279275</t>
-  </si>
-  <si>
-    <t>SO2279273</t>
-  </si>
-  <si>
-    <t>SO2279260</t>
-  </si>
-  <si>
-    <t>SO2279259</t>
-  </si>
-  <si>
-    <t>SO2279233</t>
-  </si>
-  <si>
-    <t>SO2279219</t>
-  </si>
-  <si>
-    <t>SO2279218</t>
-  </si>
-  <si>
-    <t>SO2279217</t>
-  </si>
-  <si>
-    <t>SO2279197</t>
-  </si>
-  <si>
-    <t>SO2279169</t>
-  </si>
-  <si>
-    <t>SO2279144</t>
-  </si>
-  <si>
-    <t>SO2279143</t>
-  </si>
-  <si>
-    <t>SO2279142</t>
-  </si>
-  <si>
-    <t>SO2279134</t>
-  </si>
-  <si>
-    <t>SO2279133</t>
-  </si>
-  <si>
-    <t>SO2279132</t>
-  </si>
-  <si>
-    <t>SO2279131</t>
-  </si>
-  <si>
-    <t>SO2279130</t>
-  </si>
-  <si>
-    <t>SO2279080</t>
-  </si>
-  <si>
-    <t>SO2279079</t>
-  </si>
-  <si>
-    <t>SO2279058</t>
-  </si>
-  <si>
-    <t>SO2279057</t>
-  </si>
-  <si>
-    <t>SO2279025</t>
-  </si>
-  <si>
-    <t>SO2278998</t>
-  </si>
-  <si>
-    <t>SO2278997</t>
-  </si>
-  <si>
-    <t>SO2278966</t>
-  </si>
-  <si>
-    <t>SO2278965</t>
-  </si>
-  <si>
-    <t>SO2278948</t>
-  </si>
-  <si>
-    <t>SO2278917</t>
-  </si>
-  <si>
-    <t>SO2278916</t>
-  </si>
-  <si>
-    <t>SO2278915</t>
-  </si>
-  <si>
-    <t>SO2278914</t>
-  </si>
-  <si>
-    <t>SO2278894</t>
-  </si>
-  <si>
-    <t>SO2278886</t>
-  </si>
-  <si>
-    <t>SO2278884</t>
-  </si>
-  <si>
-    <t>SO2278883</t>
-  </si>
-  <si>
-    <t>SO2278868</t>
-  </si>
-  <si>
-    <t>SO2278857</t>
-  </si>
-  <si>
-    <t>SO2278818</t>
-  </si>
-  <si>
-    <t>SO2278817</t>
-  </si>
-  <si>
-    <t>SO2278782</t>
-  </si>
-  <si>
-    <t>SO2278771</t>
-  </si>
-  <si>
-    <t>SO2278770</t>
-  </si>
-  <si>
-    <t>SO2278760</t>
-  </si>
-  <si>
-    <t>SO2278742</t>
-  </si>
-  <si>
-    <t>SO2278732</t>
-  </si>
-  <si>
-    <t>SO2278671</t>
-  </si>
-  <si>
-    <t>SO2278670</t>
-  </si>
-  <si>
-    <t>SO2278637</t>
-  </si>
-  <si>
-    <t>SO2278636</t>
-  </si>
-  <si>
-    <t>SO2278619</t>
-  </si>
-  <si>
-    <t>SO2278585</t>
-  </si>
-  <si>
-    <t>SO2278567</t>
-  </si>
-  <si>
-    <t>SO2278565</t>
-  </si>
-  <si>
-    <t>SO2278552</t>
-  </si>
-  <si>
-    <t>SO2278550</t>
-  </si>
-  <si>
-    <t>SO2278527</t>
-  </si>
-  <si>
-    <t>SO2278517</t>
-  </si>
-  <si>
-    <t>SO2278516</t>
-  </si>
-  <si>
-    <t>SO2278515</t>
-  </si>
-  <si>
-    <t>SO2278491</t>
-  </si>
-  <si>
-    <t>SO2278490</t>
-  </si>
-  <si>
-    <t>SO2278471</t>
-  </si>
-  <si>
-    <t>SO2278470</t>
-  </si>
-  <si>
-    <t>SO2278469</t>
-  </si>
-  <si>
-    <t>SO2278468</t>
-  </si>
-  <si>
-    <t>SO2278449</t>
-  </si>
-  <si>
-    <t>SO2278407</t>
-  </si>
-  <si>
-    <t>SO2278406</t>
-  </si>
-  <si>
-    <t>SO2278348</t>
-  </si>
-  <si>
-    <t>SO2278396</t>
-  </si>
-  <si>
-    <t>SO2278365</t>
-  </si>
-  <si>
-    <t>SO2278364</t>
-  </si>
-  <si>
-    <t>SO2278353</t>
-  </si>
-  <si>
-    <t>SO2278352</t>
-  </si>
-  <si>
-    <t>SO2278351</t>
-  </si>
-  <si>
-    <t>SO2278350</t>
-  </si>
-  <si>
-    <t>SO2278349</t>
-  </si>
-  <si>
-    <t>SO2278309</t>
-  </si>
-  <si>
-    <t>SO2278293</t>
-  </si>
-  <si>
-    <t>SO2278292</t>
-  </si>
-  <si>
-    <t>SO2278291</t>
-  </si>
-  <si>
-    <t>SO2278262</t>
-  </si>
-  <si>
-    <t>SO2278261</t>
-  </si>
-  <si>
-    <t>SO2278260</t>
-  </si>
-  <si>
-    <t>SO2278259</t>
-  </si>
-  <si>
-    <t>SO2278206</t>
-  </si>
-  <si>
-    <t>SO2278205</t>
-  </si>
-  <si>
-    <t>SO2278182</t>
-  </si>
-  <si>
-    <t>SO2278181</t>
-  </si>
-  <si>
-    <t>SO2278180</t>
-  </si>
-  <si>
-    <t>SO2278179</t>
-  </si>
-  <si>
-    <t>SO2278178</t>
-  </si>
-  <si>
-    <t>SO2278156</t>
-  </si>
-  <si>
-    <t>SO2278121</t>
-  </si>
-  <si>
-    <t>SO2278031</t>
-  </si>
-  <si>
-    <t>SO2278030</t>
-  </si>
-  <si>
-    <t>SO2278014</t>
-  </si>
-  <si>
-    <t>SO2278001</t>
-  </si>
-  <si>
-    <t>SO2277966</t>
-  </si>
-  <si>
-    <t>SO2277948</t>
-  </si>
-  <si>
-    <t>SO2277947</t>
-  </si>
-  <si>
-    <t>SO2277946</t>
-  </si>
-  <si>
-    <t>SO2277920</t>
-  </si>
-  <si>
-    <t>SO2277919</t>
-  </si>
-  <si>
-    <t>SO2277892</t>
-  </si>
-  <si>
-    <t>SO2277822</t>
-  </si>
-  <si>
-    <t>SO2277811</t>
-  </si>
-  <si>
-    <t>SO2277810</t>
-  </si>
-  <si>
-    <t>SO2277785</t>
-  </si>
-  <si>
-    <t>SO2277784</t>
-  </si>
-  <si>
-    <t>SO2277750</t>
-  </si>
-  <si>
-    <t>SO2277724</t>
-  </si>
-  <si>
-    <t>SO2277723</t>
-  </si>
-  <si>
-    <t>SO2277712</t>
-  </si>
-  <si>
-    <t>SO2277711</t>
-  </si>
-  <si>
-    <t>SO2277709</t>
-  </si>
-  <si>
-    <t>SO2277708</t>
-  </si>
-  <si>
-    <t>SO2277707</t>
-  </si>
-  <si>
-    <t>SO2277684</t>
-  </si>
-  <si>
-    <t>SO2277606</t>
-  </si>
-  <si>
-    <t>SO2277586</t>
-  </si>
-  <si>
-    <t>SO2277585</t>
-  </si>
-  <si>
-    <t>SO2277576</t>
-  </si>
-  <si>
-    <t>SO2277560</t>
-  </si>
-  <si>
-    <t>SO2277539</t>
-  </si>
-  <si>
-    <t>SO2277538</t>
-  </si>
-  <si>
-    <t>SO2277521</t>
-  </si>
-  <si>
-    <t>SO2277505</t>
-  </si>
-  <si>
-    <t>SO2276247</t>
-  </si>
-  <si>
-    <t>SO2277471</t>
-  </si>
-  <si>
-    <t>SO2277460</t>
-  </si>
-  <si>
-    <t>SO2277409</t>
-  </si>
-  <si>
-    <t>SO2277408</t>
-  </si>
-  <si>
-    <t>SO2277407</t>
-  </si>
-  <si>
-    <t>SO2277387</t>
-  </si>
-  <si>
-    <t>SO2277386</t>
-  </si>
-  <si>
-    <t>SO2277380</t>
-  </si>
-  <si>
-    <t>SO2277364</t>
-  </si>
-  <si>
-    <t>SO2277363</t>
-  </si>
-  <si>
-    <t>SO2277352</t>
-  </si>
-  <si>
-    <t>SO2277351</t>
-  </si>
-  <si>
-    <t>SO2277337</t>
-  </si>
-  <si>
-    <t>SO2277316</t>
-  </si>
-  <si>
-    <t>SO2277304</t>
-  </si>
-  <si>
-    <t>SO2277291</t>
-  </si>
-  <si>
-    <t>SO2277285</t>
-  </si>
-  <si>
-    <t>SO2277260</t>
-  </si>
-  <si>
-    <t>SO2277241</t>
-  </si>
-  <si>
-    <t>SO2270406</t>
-  </si>
-  <si>
-    <t>SO2265368</t>
-  </si>
-  <si>
-    <t>SO2270378</t>
-  </si>
-  <si>
-    <t>SO2277231</t>
-  </si>
-  <si>
-    <t>SO2277222</t>
-  </si>
-  <si>
-    <t>SO2277218</t>
-  </si>
-  <si>
-    <t>SO2277159</t>
-  </si>
-  <si>
-    <t>SO2277145</t>
-  </si>
-  <si>
-    <t>SO2277144</t>
-  </si>
-  <si>
-    <t>SO2277123</t>
-  </si>
-  <si>
-    <t>SO2277100</t>
-  </si>
-  <si>
-    <t>SO2277071</t>
-  </si>
-  <si>
-    <t>SO2277069</t>
-  </si>
-  <si>
-    <t>SO2277064</t>
-  </si>
-  <si>
-    <t>SO2276985</t>
-  </si>
-  <si>
-    <t>SO2276984</t>
-  </si>
-  <si>
-    <t>SO2276983</t>
-  </si>
-  <si>
-    <t>SO2276981</t>
-  </si>
-  <si>
-    <t>SO2276955</t>
-  </si>
-  <si>
-    <t>SO2276939</t>
-  </si>
-  <si>
-    <t>SO2276936</t>
-  </si>
-  <si>
-    <t>SO2276886</t>
-  </si>
-  <si>
-    <t>SO2276885</t>
-  </si>
-  <si>
-    <t>SO2276884</t>
-  </si>
-  <si>
-    <t>SO2276863</t>
-  </si>
-  <si>
-    <t>SO2276862</t>
-  </si>
-  <si>
-    <t>SO2276861</t>
-  </si>
-  <si>
-    <t>SO2276817</t>
-  </si>
-  <si>
-    <t>SO2276816</t>
-  </si>
-  <si>
-    <t>SO2276793</t>
-  </si>
-  <si>
-    <t>SO2276792</t>
-  </si>
-  <si>
-    <t>SO2276791</t>
-  </si>
-  <si>
-    <t>SO2276790</t>
-  </si>
-  <si>
-    <t>SO2276762</t>
-  </si>
-  <si>
-    <t>SO2276745</t>
-  </si>
-  <si>
-    <t>SO2276743</t>
-  </si>
-  <si>
-    <t>SO2276723</t>
-  </si>
-  <si>
-    <t>SO2276722</t>
-  </si>
-  <si>
-    <t>SO2276721</t>
-  </si>
-  <si>
-    <t>SO2276679</t>
-  </si>
-  <si>
-    <t>SO2276677</t>
-  </si>
-  <si>
-    <t>SO2276661</t>
-  </si>
-  <si>
-    <t>SO2276648</t>
-  </si>
-  <si>
-    <t>SO2276647</t>
-  </si>
-  <si>
-    <t>SO2276624</t>
-  </si>
-  <si>
-    <t>SO2276623</t>
-  </si>
-  <si>
-    <t>SO2276622</t>
-  </si>
-  <si>
-    <t>SO2276613</t>
-  </si>
-  <si>
-    <t>SO2276610</t>
-  </si>
-  <si>
-    <t>SO2276609</t>
-  </si>
-  <si>
-    <t>SO2276585</t>
-  </si>
-  <si>
-    <t>SO2276575</t>
-  </si>
-  <si>
-    <t>SO2276574</t>
-  </si>
-  <si>
-    <t>SO2276561</t>
-  </si>
-  <si>
-    <t>SO2276547</t>
-  </si>
-  <si>
-    <t>SO2276546</t>
-  </si>
-  <si>
-    <t>SO2276522</t>
-  </si>
-  <si>
-    <t>SO2276512</t>
-  </si>
-  <si>
-    <t>SO2276502</t>
-  </si>
-  <si>
-    <t>SO2276482</t>
-  </si>
-  <si>
-    <t>SO2276473</t>
-  </si>
-  <si>
-    <t>SO2276472</t>
-  </si>
-  <si>
-    <t>SO2276471</t>
-  </si>
-  <si>
-    <t>SO2276470</t>
-  </si>
-  <si>
-    <t>SO2276445</t>
-  </si>
-  <si>
-    <t>SO2276420</t>
-  </si>
-  <si>
-    <t>SO2276418</t>
-  </si>
-  <si>
-    <t>SO2276417</t>
-  </si>
-  <si>
-    <t>SO2276393</t>
-  </si>
-  <si>
-    <t>SO2276392</t>
-  </si>
-  <si>
-    <t>SO2276390</t>
-  </si>
-  <si>
-    <t>SO2276388</t>
-  </si>
-  <si>
-    <t>SO2276375</t>
-  </si>
-  <si>
-    <t>SO2276374</t>
-  </si>
-  <si>
-    <t>SO2276351</t>
-  </si>
-  <si>
-    <t>SO2276333</t>
-  </si>
-  <si>
-    <t>SO2276331</t>
-  </si>
-  <si>
-    <t>SO2276270</t>
-  </si>
-  <si>
-    <t>SO2276251</t>
-  </si>
-  <si>
-    <t>SO2276250</t>
-  </si>
-  <si>
-    <t>SO2276249</t>
-  </si>
-  <si>
-    <t>SO2276248</t>
-  </si>
-  <si>
-    <t>SO2276246</t>
-  </si>
-  <si>
-    <t>SO2276245</t>
-  </si>
-  <si>
-    <t>SO2276244</t>
-  </si>
-  <si>
-    <t>SO2276230</t>
-  </si>
-  <si>
-    <t>SO2276209</t>
-  </si>
-  <si>
-    <t>SO2276190</t>
-  </si>
-  <si>
-    <t>SO2276189</t>
-  </si>
-  <si>
-    <t>SO2276188</t>
-  </si>
-  <si>
-    <t>SO2276129</t>
-  </si>
-  <si>
-    <t>SO2276114</t>
-  </si>
-  <si>
-    <t>SO2276103</t>
-  </si>
-  <si>
-    <t>SO2276047</t>
-  </si>
-  <si>
-    <t>SO2276046</t>
-  </si>
-  <si>
-    <t>SO2276045</t>
-  </si>
-  <si>
-    <t>SO2276028</t>
-  </si>
-  <si>
-    <t>SO2276027</t>
-  </si>
-  <si>
-    <t>SO2276008</t>
-  </si>
-  <si>
-    <t>SO2275964</t>
-  </si>
-  <si>
-    <t>SO2275963</t>
-  </si>
-  <si>
-    <t>SO2275962</t>
-  </si>
-  <si>
-    <t>SO2275943</t>
-  </si>
-  <si>
-    <t>SO2275935</t>
-  </si>
-  <si>
-    <t>SO2275934</t>
-  </si>
-  <si>
-    <t>SO2275933</t>
-  </si>
-  <si>
-    <t>SO2275920</t>
-  </si>
-  <si>
-    <t>SO2275882</t>
-  </si>
-  <si>
-    <t>SO2275881</t>
-  </si>
-  <si>
-    <t>SO2275880</t>
-  </si>
-  <si>
-    <t>SO2275868</t>
-  </si>
-  <si>
-    <t>SO2275867</t>
-  </si>
-  <si>
-    <t>SO2275866</t>
-  </si>
-  <si>
-    <t>SO2275784</t>
-  </si>
-  <si>
-    <t>SO2275774</t>
-  </si>
-  <si>
-    <t>SO2275751</t>
-  </si>
-  <si>
-    <t>SO2275750</t>
-  </si>
-  <si>
-    <t>SO2275719</t>
-  </si>
-  <si>
-    <t>SO2275718</t>
-  </si>
-  <si>
-    <t>SO2275710</t>
-  </si>
-  <si>
-    <t>SO2275677</t>
-  </si>
-  <si>
-    <t>SO2275676</t>
-  </si>
-  <si>
-    <t>SO2275675</t>
-  </si>
-  <si>
-    <t>SO2275638</t>
-  </si>
-  <si>
-    <t>SO2275637</t>
-  </si>
-  <si>
-    <t>SO2275636</t>
-  </si>
-  <si>
-    <t>SO2275570</t>
-  </si>
-  <si>
-    <t>SO2275539</t>
-  </si>
-  <si>
-    <t>SO2275538</t>
-  </si>
-  <si>
-    <t>SO2275524</t>
-  </si>
-  <si>
-    <t>SO2275523</t>
-  </si>
-  <si>
-    <t>SO2275509</t>
-  </si>
-  <si>
-    <t>SO2275491</t>
-  </si>
-  <si>
-    <t>SO2275468</t>
-  </si>
-  <si>
-    <t>SO2275467</t>
-  </si>
-  <si>
-    <t>SO2275466</t>
-  </si>
-  <si>
-    <t>SO2275459</t>
-  </si>
-  <si>
-    <t>SO2275458</t>
-  </si>
-  <si>
-    <t>SO2275457</t>
-  </si>
-  <si>
-    <t>SO2275425</t>
-  </si>
-  <si>
-    <t>SO2275392</t>
-  </si>
-  <si>
-    <t>SO2275319</t>
-  </si>
-  <si>
-    <t>SO2275311</t>
-  </si>
-  <si>
-    <t>SO2275294</t>
-  </si>
-  <si>
-    <t>SO2275270</t>
-  </si>
-  <si>
-    <t>SO2275269</t>
-  </si>
-  <si>
-    <t>SO2275268</t>
-  </si>
-  <si>
-    <t>SO2275267</t>
-  </si>
-  <si>
-    <t>SO2275243</t>
-  </si>
-  <si>
-    <t>SO2275212</t>
-  </si>
-  <si>
-    <t>SO2275211</t>
-  </si>
-  <si>
-    <t>SO2275197</t>
-  </si>
-  <si>
-    <t>SO2275196</t>
-  </si>
-  <si>
-    <t>SO2275195</t>
-  </si>
-  <si>
-    <t>SO2275194</t>
-  </si>
-  <si>
-    <t>SO2275192</t>
-  </si>
-  <si>
-    <t>SO2275175</t>
-  </si>
-  <si>
-    <t>SO2275140</t>
-  </si>
-  <si>
-    <t>SO2275139</t>
-  </si>
-  <si>
-    <t>SO2275138</t>
-  </si>
-  <si>
-    <t>SO2275123</t>
-  </si>
-  <si>
-    <t>SO2275091</t>
-  </si>
-  <si>
-    <t>SO2275090</t>
-  </si>
-  <si>
-    <t>SO2275079</t>
-  </si>
-  <si>
-    <t>SO2275067</t>
-  </si>
-  <si>
-    <t>SO2275066</t>
-  </si>
-  <si>
-    <t>SO2275065</t>
-  </si>
-  <si>
-    <t>SO2275063</t>
-  </si>
-  <si>
-    <t>SO2275043</t>
-  </si>
-  <si>
-    <t>SO2275042</t>
-  </si>
-  <si>
-    <t>SO2275026</t>
-  </si>
-  <si>
-    <t>SO2275025</t>
-  </si>
-  <si>
-    <t>SO2274979</t>
-  </si>
-  <si>
-    <t>SO2274978</t>
-  </si>
-  <si>
-    <t>SO2274977</t>
-  </si>
-  <si>
-    <t>SO2274967</t>
-  </si>
-  <si>
-    <t>SO2274965</t>
-  </si>
-  <si>
-    <t>SO2273690</t>
-  </si>
-  <si>
-    <t>SO2274930</t>
-  </si>
-  <si>
-    <t>SO2274929</t>
-  </si>
-  <si>
-    <t>SO2274928</t>
-  </si>
-  <si>
-    <t>SO2274927</t>
-  </si>
-  <si>
-    <t>SO2274002</t>
-  </si>
-  <si>
-    <t>SO2274893</t>
-  </si>
-  <si>
-    <t>SO2274880</t>
-  </si>
-  <si>
-    <t>SO2274879</t>
-  </si>
-  <si>
-    <t>SO2274878</t>
-  </si>
-  <si>
-    <t>SO2274877</t>
-  </si>
-  <si>
-    <t>SO2274864</t>
-  </si>
-  <si>
-    <t>SO2274861</t>
-  </si>
-  <si>
-    <t>SO2274841</t>
-  </si>
-  <si>
-    <t>SO2274835</t>
-  </si>
-  <si>
-    <t>SO2274833</t>
-  </si>
-  <si>
-    <t>SO2274832</t>
-  </si>
-  <si>
-    <t>SO2274808</t>
-  </si>
-  <si>
-    <t>SO2274807</t>
-  </si>
-  <si>
-    <t>SO2274805</t>
-  </si>
-  <si>
-    <t>SO2274804</t>
-  </si>
-  <si>
-    <t>SO2274795</t>
-  </si>
-  <si>
-    <t>SO2274794</t>
-  </si>
-  <si>
-    <t>SO2274775</t>
-  </si>
-  <si>
-    <t>SO2274765</t>
-  </si>
-  <si>
-    <t>SO2274764</t>
-  </si>
-  <si>
-    <t>SO2274753</t>
-  </si>
-  <si>
-    <t>SO2274752</t>
-  </si>
-  <si>
-    <t>SO2274724</t>
-  </si>
-  <si>
-    <t>SO2274723</t>
-  </si>
-  <si>
-    <t>SO2274659</t>
-  </si>
-  <si>
-    <t>SO2274629</t>
-  </si>
-  <si>
-    <t>SO2272192</t>
-  </si>
-  <si>
-    <t>SO2274604</t>
-  </si>
-  <si>
-    <t>SO2274603</t>
-  </si>
-  <si>
-    <t>SO2274586</t>
-  </si>
-  <si>
-    <t>SO2274562</t>
-  </si>
-  <si>
-    <t>SO2274561</t>
-  </si>
-  <si>
-    <t>SO2274531</t>
-  </si>
-  <si>
-    <t>SO2274517</t>
-  </si>
-  <si>
-    <t>SO2274516</t>
-  </si>
-  <si>
-    <t>SO2274432</t>
-  </si>
-  <si>
-    <t>SO2274425</t>
-  </si>
-  <si>
-    <t>SO2274377</t>
-  </si>
-  <si>
-    <t>SO2274358</t>
-  </si>
-  <si>
-    <t>SO2274357</t>
-  </si>
-  <si>
-    <t>SO2274339</t>
-  </si>
-  <si>
-    <t>SO2274327</t>
-  </si>
-  <si>
-    <t>SO2274320</t>
-  </si>
-  <si>
-    <t>SO2274293</t>
-  </si>
-  <si>
-    <t>SO2274276</t>
-  </si>
-  <si>
-    <t>SO2274249</t>
-  </si>
-  <si>
-    <t>SO2274239</t>
-  </si>
-  <si>
-    <t>SO2274238</t>
-  </si>
-  <si>
-    <t>SO2274217</t>
-  </si>
-  <si>
-    <t>SO2274206</t>
-  </si>
-  <si>
-    <t>SO2274195</t>
-  </si>
-  <si>
-    <t>SO2274194</t>
-  </si>
-  <si>
-    <t>SO2274179</t>
-  </si>
-  <si>
-    <t>SO2274178</t>
-  </si>
-  <si>
-    <t>SO2274177</t>
-  </si>
-  <si>
-    <t>SO2274176</t>
-  </si>
-  <si>
-    <t>SO2274134</t>
-  </si>
-  <si>
-    <t>SO2274120</t>
-  </si>
-  <si>
-    <t>SO2274100</t>
-  </si>
-  <si>
-    <t>SO2274072</t>
-  </si>
-  <si>
-    <t>SO2274019</t>
-  </si>
-  <si>
-    <t>SO2274018</t>
-  </si>
-  <si>
-    <t>SO2274001</t>
-  </si>
-  <si>
-    <t>SO2273999</t>
-  </si>
-  <si>
-    <t>SO2273961</t>
-  </si>
-  <si>
-    <t>SO2273952</t>
-  </si>
-  <si>
-    <t>SO2273923</t>
-  </si>
-  <si>
-    <t>SO2273911</t>
-  </si>
-  <si>
-    <t>SO2273858</t>
-  </si>
-  <si>
-    <t>SO2273842</t>
-  </si>
-  <si>
-    <t>SO2273826</t>
-  </si>
-  <si>
-    <t>SO2273825</t>
-  </si>
-  <si>
-    <t>SO2273810</t>
-  </si>
-  <si>
-    <t>SO2273786</t>
-  </si>
-  <si>
-    <t>SO2273785</t>
-  </si>
-  <si>
-    <t>SO2273784</t>
-  </si>
-  <si>
-    <t>SO2273783</t>
-  </si>
-  <si>
-    <t>SO2273758</t>
-  </si>
-  <si>
-    <t>SO2273756</t>
-  </si>
-  <si>
-    <t>SO2273755</t>
-  </si>
-  <si>
-    <t>SO2273754</t>
-  </si>
-  <si>
-    <t>SO2273753</t>
-  </si>
-  <si>
-    <t>SO2273714</t>
-  </si>
-  <si>
-    <t>SO2273703</t>
-  </si>
-  <si>
-    <t>SO2273702</t>
-  </si>
-  <si>
-    <t>SO2273692</t>
-  </si>
-  <si>
-    <t>SO2273691</t>
-  </si>
-  <si>
-    <t>SO2273689</t>
-  </si>
-  <si>
-    <t>SO2273656</t>
-  </si>
-  <si>
-    <t>SO2273620</t>
-  </si>
-  <si>
-    <t>SO2273619</t>
-  </si>
-  <si>
-    <t>SO2273595</t>
-  </si>
-  <si>
-    <t>SO2273562</t>
-  </si>
-  <si>
-    <t>SO2273561</t>
-  </si>
-  <si>
-    <t>SO2273552</t>
-  </si>
-  <si>
-    <t>SO2273550</t>
-  </si>
-  <si>
-    <t>SO2273548</t>
-  </si>
-  <si>
-    <t>SO2273547</t>
-  </si>
-  <si>
-    <t>SO2273545</t>
-  </si>
-  <si>
-    <t>SO2273529</t>
-  </si>
-  <si>
-    <t>SO2273520</t>
-  </si>
-  <si>
-    <t>SO2273506</t>
-  </si>
-  <si>
-    <t>SO2273495</t>
-  </si>
-  <si>
-    <t>SO2273494</t>
-  </si>
-  <si>
-    <t>SO2273473</t>
-  </si>
-  <si>
-    <t>SO2273456</t>
-  </si>
-  <si>
-    <t>SO2273454</t>
-  </si>
-  <si>
-    <t>SO2273453</t>
-  </si>
-  <si>
-    <t>SO2273437</t>
-  </si>
-  <si>
-    <t>SO2273424</t>
-  </si>
-  <si>
-    <t>SO2273410</t>
-  </si>
-  <si>
-    <t>SO2273409</t>
-  </si>
-  <si>
-    <t>SO2273408</t>
-  </si>
-  <si>
-    <t>SO2273396</t>
-  </si>
-  <si>
-    <t>SO2273395</t>
-  </si>
-  <si>
-    <t>SO2273368</t>
-  </si>
-  <si>
-    <t>SO2273366</t>
-  </si>
-  <si>
-    <t>SO2273365</t>
-  </si>
-  <si>
-    <t>SO2273352</t>
-  </si>
-  <si>
-    <t>SO2273334</t>
-  </si>
-  <si>
-    <t>SO2273300</t>
-  </si>
-  <si>
-    <t>SO2273299</t>
-  </si>
-  <si>
-    <t>SO2273248</t>
-  </si>
-  <si>
-    <t>SO2273246</t>
-  </si>
-  <si>
-    <t>SO2273245</t>
-  </si>
-  <si>
-    <t>SO2273215</t>
-  </si>
-  <si>
-    <t>SO2273213</t>
-  </si>
-  <si>
-    <t>SO2273187</t>
-  </si>
-  <si>
-    <t>SO2273186</t>
-  </si>
-  <si>
-    <t>SO2273181</t>
-  </si>
-  <si>
-    <t>SO2273159</t>
-  </si>
-  <si>
-    <t>SO2273149</t>
-  </si>
-  <si>
-    <t>SO2273147</t>
-  </si>
-  <si>
-    <t>SO2273130</t>
-  </si>
-  <si>
-    <t>SO2273129</t>
-  </si>
-  <si>
-    <t>SO2273128</t>
-  </si>
-  <si>
-    <t>SO2273093</t>
-  </si>
-  <si>
-    <t>SO2273091</t>
-  </si>
-  <si>
-    <t>SO2273090</t>
-  </si>
-  <si>
-    <t>SO2273070</t>
-  </si>
-  <si>
-    <t>SO2273045</t>
-  </si>
-  <si>
-    <t>SO2273016</t>
-  </si>
-  <si>
-    <t>SO2272976</t>
-  </si>
-  <si>
-    <t>SO2272974</t>
-  </si>
-  <si>
-    <t>SO2272959</t>
-  </si>
-  <si>
-    <t>SO2272944</t>
-  </si>
-  <si>
-    <t>SO2272943</t>
-  </si>
-  <si>
-    <t>SO2272941</t>
-  </si>
-  <si>
-    <t>SO2272939</t>
-  </si>
-  <si>
-    <t>SO2272938</t>
-  </si>
-  <si>
-    <t>SO2272922</t>
-  </si>
-  <si>
-    <t>SO2272882</t>
-  </si>
-  <si>
-    <t>SO2272864</t>
-  </si>
-  <si>
-    <t>SO2272841</t>
-  </si>
-  <si>
-    <t>SO2272840</t>
-  </si>
-  <si>
-    <t>SO2272839</t>
-  </si>
-  <si>
-    <t>SO2272815</t>
-  </si>
-  <si>
-    <t>SO2272814</t>
-  </si>
-  <si>
-    <t>SO2272791</t>
-  </si>
-  <si>
-    <t>SO2272790</t>
-  </si>
-  <si>
-    <t>SO2272789</t>
-  </si>
-  <si>
-    <t>SO2272767</t>
-  </si>
-  <si>
-    <t>SO2272746</t>
-  </si>
-  <si>
-    <t>SO2272745</t>
-  </si>
-  <si>
-    <t>SO2272726</t>
-  </si>
-  <si>
-    <t>SO2272693</t>
-  </si>
-  <si>
-    <t>SO2272672</t>
-  </si>
-  <si>
-    <t>SO2272670</t>
-  </si>
-  <si>
-    <t>SO2272668</t>
-  </si>
-  <si>
-    <t>SO2272646</t>
-  </si>
-  <si>
-    <t>SO2272645</t>
-  </si>
-  <si>
-    <t>SO2272628</t>
-  </si>
-  <si>
-    <t>SO2272627</t>
-  </si>
-  <si>
-    <t>SO2272614</t>
-  </si>
-  <si>
-    <t>SO2272598</t>
-  </si>
-  <si>
-    <t>SO2272597</t>
-  </si>
-  <si>
-    <t>SO2272531</t>
-  </si>
-  <si>
-    <t>SO2272530</t>
-  </si>
-  <si>
-    <t>SO2272460</t>
-  </si>
-  <si>
-    <t>SO2272440</t>
-  </si>
-  <si>
-    <t>SO2272424</t>
-  </si>
-  <si>
-    <t>SO2272406</t>
-  </si>
-  <si>
-    <t>SO2272379</t>
-  </si>
-  <si>
-    <t>SO2272359</t>
-  </si>
-  <si>
-    <t>SO2272248</t>
-  </si>
-  <si>
-    <t>SO2272247</t>
-  </si>
-  <si>
-    <t>SO2272227</t>
-  </si>
-  <si>
-    <t>SO2272206</t>
-  </si>
-  <si>
-    <t>SO2272188</t>
-  </si>
-  <si>
-    <t>SO2271146</t>
-  </si>
-  <si>
-    <t>SO2272140</t>
-  </si>
-  <si>
-    <t>SO2272139</t>
-  </si>
-  <si>
-    <t>SO2272090</t>
-  </si>
-  <si>
-    <t>SO2272024</t>
-  </si>
-  <si>
-    <t>SO2272010</t>
-  </si>
-  <si>
-    <t>SO2271972</t>
-  </si>
-  <si>
-    <t>SO2271970</t>
-  </si>
-  <si>
-    <t>SO2271905</t>
-  </si>
-  <si>
-    <t>SO2271904</t>
-  </si>
-  <si>
-    <t>SO2271903</t>
-  </si>
-  <si>
-    <t>SO2271887</t>
-  </si>
-  <si>
-    <t>SO2271805</t>
-  </si>
-  <si>
-    <t>SO2271724</t>
-  </si>
-  <si>
-    <t>SO2271723</t>
-  </si>
-  <si>
-    <t>SO2271707</t>
-  </si>
-  <si>
-    <t>SO2271647</t>
-  </si>
-  <si>
-    <t>SO2271563</t>
-  </si>
-  <si>
-    <t>SO2271561</t>
-  </si>
-  <si>
-    <t>SO2270393</t>
-  </si>
-  <si>
-    <t>SO2271500</t>
-  </si>
-  <si>
-    <t>SO2271414</t>
-  </si>
-  <si>
-    <t>SO2271413</t>
-  </si>
-  <si>
-    <t>SO2271390</t>
-  </si>
-  <si>
-    <t>SO2271359</t>
-  </si>
-  <si>
-    <t>SO2271338</t>
-  </si>
-  <si>
-    <t>SO2271333</t>
-  </si>
-  <si>
-    <t>SO2271246</t>
-  </si>
-  <si>
-    <t>SO2271228</t>
-  </si>
-  <si>
-    <t>SO2271210</t>
-  </si>
-  <si>
-    <t>SO2271204</t>
-  </si>
-  <si>
-    <t>SO2271183</t>
-  </si>
-  <si>
-    <t>SO2271160</t>
-  </si>
-  <si>
-    <t>SO2271145</t>
-  </si>
-  <si>
-    <t>SO2271063</t>
-  </si>
-  <si>
-    <t>SO2271062</t>
-  </si>
-  <si>
-    <t>SO2271056</t>
-  </si>
-  <si>
-    <t>SO2271024</t>
-  </si>
-  <si>
-    <t>SO2270977</t>
-  </si>
-  <si>
-    <t>SO2270958</t>
-  </si>
-  <si>
-    <t>SO2270923</t>
-  </si>
-  <si>
-    <t>SO2270842</t>
-  </si>
-  <si>
-    <t>SO2270825</t>
-  </si>
-  <si>
-    <t>SO2270824</t>
-  </si>
-  <si>
-    <t>SO2270723</t>
-  </si>
-  <si>
-    <t>SO2270597</t>
-  </si>
-  <si>
-    <t>SO2270581</t>
-  </si>
-  <si>
-    <t>SO2270456</t>
-  </si>
-  <si>
-    <t>SO2270392</t>
-  </si>
-  <si>
-    <t>SO2270391</t>
-  </si>
-  <si>
-    <t>SO2270390</t>
-  </si>
-  <si>
-    <t>SO2270330</t>
-  </si>
-  <si>
-    <t>SO2270313</t>
-  </si>
-  <si>
-    <t>SO2270295</t>
-  </si>
-  <si>
-    <t>SO2270283</t>
-  </si>
-  <si>
-    <t>SO2270269</t>
-  </si>
-  <si>
-    <t>SO2270255</t>
-  </si>
-  <si>
-    <t>SO2270249</t>
-  </si>
-  <si>
-    <t>SO2270208</t>
-  </si>
-  <si>
-    <t>SO2270192</t>
-  </si>
-  <si>
-    <t>SO2270165</t>
-  </si>
-  <si>
-    <t>SO2270146</t>
-  </si>
-  <si>
-    <t>SO2270145</t>
-  </si>
-  <si>
-    <t>SO2270110</t>
-  </si>
-  <si>
-    <t>SO2270067</t>
-  </si>
-  <si>
-    <t>SO2270006</t>
-  </si>
-  <si>
-    <t>SO2269953</t>
-  </si>
-  <si>
-    <t>SO2269937</t>
-  </si>
-  <si>
-    <t>SO2269936</t>
-  </si>
-  <si>
-    <t>SO2269877</t>
-  </si>
-  <si>
-    <t>SO2269819</t>
-  </si>
-  <si>
-    <t>SO2269774</t>
-  </si>
-  <si>
-    <t>SO2269772</t>
-  </si>
-  <si>
-    <t>SO2269683</t>
-  </si>
-  <si>
-    <t>SO2269205</t>
-  </si>
-  <si>
-    <t>SO2269526</t>
-  </si>
-  <si>
-    <t>SO2269478</t>
-  </si>
-  <si>
-    <t>SO2269444</t>
-  </si>
-  <si>
-    <t>SO2269443</t>
-  </si>
-  <si>
-    <t>SO2269381</t>
-  </si>
-  <si>
-    <t>SO2269322</t>
-  </si>
-  <si>
-    <t>SO2269321</t>
-  </si>
-  <si>
-    <t>SO2269248</t>
-  </si>
-  <si>
-    <t>SO2269206</t>
-  </si>
-  <si>
-    <t>SO2269180</t>
-  </si>
-  <si>
-    <t>SO2269179</t>
-  </si>
-  <si>
-    <t>SO2269176</t>
-  </si>
-  <si>
-    <t>SO2269132</t>
-  </si>
-  <si>
-    <t>SO2269131</t>
-  </si>
-  <si>
-    <t>SO2269007</t>
-  </si>
-  <si>
-    <t>SO2268958</t>
-  </si>
-  <si>
-    <t>SO2268856</t>
-  </si>
-  <si>
-    <t>SO2268854</t>
-  </si>
-  <si>
-    <t>SO2268851</t>
-  </si>
-  <si>
-    <t>SO2268776</t>
-  </si>
-  <si>
-    <t>SO2268727</t>
-  </si>
-  <si>
-    <t>SO2268714</t>
-  </si>
-  <si>
-    <t>SO2268554</t>
-  </si>
-  <si>
-    <t>SO2268529</t>
-  </si>
-  <si>
-    <t>SO2268527</t>
-  </si>
-  <si>
-    <t>SO2268525</t>
-  </si>
-  <si>
-    <t>SO2268522</t>
-  </si>
-  <si>
-    <t>SO2268423</t>
-  </si>
-  <si>
-    <t>SO2268294</t>
-  </si>
-  <si>
-    <t>SO2268227</t>
-  </si>
-  <si>
-    <t>SO2268173</t>
-  </si>
-  <si>
-    <t>SO2268000</t>
-  </si>
-  <si>
-    <t>SO2267974</t>
-  </si>
-  <si>
-    <t>SO2267956</t>
-  </si>
-  <si>
-    <t>SO2267343</t>
-  </si>
-  <si>
-    <t>SO2266994</t>
-  </si>
-  <si>
-    <t>SO2266941</t>
-  </si>
-  <si>
-    <t>SO2266936</t>
-  </si>
-  <si>
-    <t>SO2266931</t>
-  </si>
-  <si>
-    <t>SO2266918</t>
-  </si>
-  <si>
-    <t>SO2266883</t>
-  </si>
-  <si>
-    <t>SO2266685</t>
-  </si>
-  <si>
-    <t>SO2266559</t>
-  </si>
-  <si>
-    <t>SO2266409</t>
-  </si>
-  <si>
-    <t>SO2266318</t>
-  </si>
-  <si>
-    <t>SO2266312</t>
-  </si>
-  <si>
-    <t>SO2266297</t>
-  </si>
-  <si>
-    <t>SO2266133</t>
-  </si>
-  <si>
-    <t>SO2266042</t>
-  </si>
-  <si>
-    <t>SO2265822</t>
-  </si>
-  <si>
-    <t>SO2265821</t>
-  </si>
-  <si>
-    <t>SO2265700</t>
-  </si>
-  <si>
-    <t>SO2265299</t>
-  </si>
-  <si>
-    <t>SO2265297</t>
-  </si>
-  <si>
-    <t>SO2265294</t>
-  </si>
-  <si>
-    <t>SO2265279</t>
-  </si>
-  <si>
-    <t>SO2265191</t>
-  </si>
-  <si>
-    <t>SO2264904</t>
-  </si>
-  <si>
-    <t>SO2264903</t>
-  </si>
-  <si>
-    <t>SO2264729</t>
-  </si>
-  <si>
-    <t>SO2264686</t>
-  </si>
-  <si>
-    <t>SO2264673</t>
-  </si>
-  <si>
-    <t>SO2264378</t>
-  </si>
-  <si>
-    <t>SO2264112</t>
-  </si>
-  <si>
-    <t>SO2264035</t>
-  </si>
-  <si>
-    <t>SO2263948</t>
-  </si>
-  <si>
-    <t>SO2263871</t>
-  </si>
-  <si>
-    <t>SO2263582</t>
-  </si>
-  <si>
-    <t>SO2263429</t>
-  </si>
-  <si>
-    <t>SO2263392</t>
-  </si>
-  <si>
-    <t>SO2262866</t>
-  </si>
-  <si>
-    <t>SO2257174</t>
-  </si>
-  <si>
-    <t>SO2256726</t>
-  </si>
-  <si>
-    <t>SO2256353</t>
-  </si>
-  <si>
-    <t>SO2255658</t>
-  </si>
-  <si>
-    <t>SO2253860</t>
-  </si>
-  <si>
-    <t>SO2253852</t>
-  </si>
-  <si>
-    <t>SO2253710</t>
-  </si>
-  <si>
-    <t>SO2087768</t>
-  </si>
-  <si>
-    <t>SO2064123</t>
-  </si>
-  <si>
-    <t>SO2062862</t>
-  </si>
-  <si>
-    <t>SO2062800</t>
-  </si>
-  <si>
-    <t>SO2062799</t>
+    <t>SO2330352</t>
+  </si>
+  <si>
+    <t>SO2330360</t>
+  </si>
+  <si>
+    <t>SO2330388</t>
+  </si>
+  <si>
+    <t>SO2351404</t>
+  </si>
+  <si>
+    <t>SO2330420</t>
+  </si>
+  <si>
+    <t>SO2330403</t>
+  </si>
+  <si>
+    <t>SO2330413</t>
+  </si>
+  <si>
+    <t>SO2330458</t>
+  </si>
+  <si>
+    <t>SO2330476</t>
+  </si>
+  <si>
+    <t>SO2330536</t>
+  </si>
+  <si>
+    <t>SO2330683</t>
+  </si>
+  <si>
+    <t>SO2330713</t>
+  </si>
+  <si>
+    <t>SO2330758</t>
+  </si>
+  <si>
+    <t>SO2330738</t>
+  </si>
+  <si>
+    <t>SO2330724</t>
+  </si>
+  <si>
+    <t>SO2330801</t>
+  </si>
+  <si>
+    <t>SO2330877</t>
+  </si>
+  <si>
+    <t>SO2331055</t>
+  </si>
+  <si>
+    <t>SO2330953</t>
+  </si>
+  <si>
+    <t>SO2330990</t>
+  </si>
+  <si>
+    <t>SO2331032</t>
+  </si>
+  <si>
+    <t>SO2331082</t>
+  </si>
+  <si>
+    <t>SO2331147</t>
+  </si>
+  <si>
+    <t>SO2331069</t>
+  </si>
+  <si>
+    <t>SO2333360</t>
+  </si>
+  <si>
+    <t>SO2332933</t>
+  </si>
+  <si>
+    <t>SO2331247</t>
+  </si>
+  <si>
+    <t>SO2351403</t>
+  </si>
+  <si>
+    <t>SO2331544</t>
+  </si>
+  <si>
+    <t>SO2331599</t>
+  </si>
+  <si>
+    <t>SO2333010</t>
+  </si>
+  <si>
+    <t>SO2332076</t>
+  </si>
+  <si>
+    <t>SO2331764</t>
+  </si>
+  <si>
+    <t>SO2331765</t>
+  </si>
+  <si>
+    <t>SO2331816</t>
+  </si>
+  <si>
+    <t>SO2331781</t>
+  </si>
+  <si>
+    <t>SO2331855</t>
+  </si>
+  <si>
+    <t>SO2331876</t>
+  </si>
+  <si>
+    <t>SO2331891</t>
+  </si>
+  <si>
+    <t>SO2333142</t>
+  </si>
+  <si>
+    <t>SO2331942</t>
+  </si>
+  <si>
+    <t>SO2366950</t>
+  </si>
+  <si>
+    <t>SO2333994</t>
+  </si>
+  <si>
+    <t>SO2331931</t>
+  </si>
+  <si>
+    <t>SO2332012</t>
+  </si>
+  <si>
+    <t>SO2332024</t>
+  </si>
+  <si>
+    <t>SO2332296</t>
+  </si>
+  <si>
+    <t>SO2333196</t>
+  </si>
+  <si>
+    <t>SO2332337</t>
+  </si>
+  <si>
+    <t>SO2332272</t>
+  </si>
+  <si>
+    <t>SO2332395</t>
+  </si>
+  <si>
+    <t>SO2332394</t>
+  </si>
+  <si>
+    <t>SO2332336</t>
+  </si>
+  <si>
+    <t>SO2346366</t>
+  </si>
+  <si>
+    <t>SO2332803</t>
+  </si>
+  <si>
+    <t>SO2332409</t>
+  </si>
+  <si>
+    <t>SO2332479</t>
+  </si>
+  <si>
+    <t>SO2332422</t>
+  </si>
+  <si>
+    <t>SO2332513</t>
+  </si>
+  <si>
+    <t>SO2332593</t>
+  </si>
+  <si>
+    <t>SO2339877</t>
+  </si>
+  <si>
+    <t>SO2333479</t>
+  </si>
+  <si>
+    <t>SO2332582</t>
+  </si>
+  <si>
+    <t>SO2335975</t>
+  </si>
+  <si>
+    <t>SO2338353</t>
+  </si>
+  <si>
+    <t>SO2332809</t>
+  </si>
+  <si>
+    <t>SO2346513</t>
+  </si>
+  <si>
+    <t>SO2332909</t>
+  </si>
+  <si>
+    <t>SO2332931</t>
+  </si>
+  <si>
+    <t>SO2332891</t>
+  </si>
+  <si>
+    <t>SO2332892</t>
+  </si>
+  <si>
+    <t>SO2332981</t>
+  </si>
+  <si>
+    <t>SO2332886</t>
+  </si>
+  <si>
+    <t>SO2334682</t>
+  </si>
+  <si>
+    <t>SO2332980</t>
+  </si>
+  <si>
+    <t>SO2332978</t>
+  </si>
+  <si>
+    <t>SO2333009</t>
+  </si>
+  <si>
+    <t>SO2333173</t>
+  </si>
+  <si>
+    <t>SO2339770</t>
+  </si>
+  <si>
+    <t>SO2333253</t>
+  </si>
+  <si>
+    <t>SO2333263</t>
+  </si>
+  <si>
+    <t>SO2369102</t>
+  </si>
+  <si>
+    <t>SO2333238</t>
+  </si>
+  <si>
+    <t>SO2335387</t>
+  </si>
+  <si>
+    <t>SO2333340</t>
+  </si>
+  <si>
+    <t>SO2333507</t>
+  </si>
+  <si>
+    <t>SO2333552</t>
+  </si>
+  <si>
+    <t>SO2354204</t>
+  </si>
+  <si>
+    <t>SO2333643</t>
+  </si>
+  <si>
+    <t>SO2333625</t>
+  </si>
+  <si>
+    <t>SO2333804</t>
+  </si>
+  <si>
+    <t>SO2333783</t>
+  </si>
+  <si>
+    <t>SO2333820</t>
+  </si>
+  <si>
+    <t>SO2333763</t>
+  </si>
+  <si>
+    <t>SO2333882</t>
+  </si>
+  <si>
+    <t>SO2333917</t>
+  </si>
+  <si>
+    <t>SO2333993</t>
+  </si>
+  <si>
+    <t>SO2334057</t>
+  </si>
+  <si>
+    <t>SO2334053</t>
+  </si>
+  <si>
+    <t>SO2358775</t>
+  </si>
+  <si>
+    <t>SO2334357</t>
+  </si>
+  <si>
+    <t>SO2334254</t>
+  </si>
+  <si>
+    <t>SO2334255</t>
+  </si>
+  <si>
+    <t>SO2334312</t>
+  </si>
+  <si>
+    <t>SO2334346</t>
+  </si>
+  <si>
+    <t>SO2334392</t>
+  </si>
+  <si>
+    <t>SO2334498</t>
+  </si>
+  <si>
+    <t>SO2334499</t>
+  </si>
+  <si>
+    <t>SO2334527</t>
+  </si>
+  <si>
+    <t>SO2334574</t>
+  </si>
+  <si>
+    <t>SO2334590</t>
+  </si>
+  <si>
+    <t>SO2334642</t>
+  </si>
+  <si>
+    <t>SO2358295</t>
+  </si>
+  <si>
+    <t>SO2334729</t>
+  </si>
+  <si>
+    <t>SO2334740</t>
+  </si>
+  <si>
+    <t>SO2334805</t>
+  </si>
+  <si>
+    <t>SO2334781</t>
+  </si>
+  <si>
+    <t>SO2334756</t>
+  </si>
+  <si>
+    <t>SO2334804</t>
+  </si>
+  <si>
+    <t>SO2334853</t>
+  </si>
+  <si>
+    <t>SO2334843</t>
+  </si>
+  <si>
+    <t>SO2334917</t>
+  </si>
+  <si>
+    <t>SO2335043</t>
+  </si>
+  <si>
+    <t>SO2335083</t>
+  </si>
+  <si>
+    <t>SO2335110</t>
+  </si>
+  <si>
+    <t>SO2335162</t>
+  </si>
+  <si>
+    <t>SO2335150</t>
+  </si>
+  <si>
+    <t>SO2335328</t>
+  </si>
+  <si>
+    <t>SO2335646</t>
+  </si>
+  <si>
+    <t>SO2335482</t>
+  </si>
+  <si>
+    <t>SO2335464</t>
+  </si>
+  <si>
+    <t>SO2335516</t>
+  </si>
+  <si>
+    <t>SO2335449</t>
+  </si>
+  <si>
+    <t>SO2335834</t>
+  </si>
+  <si>
+    <t>SO2335550</t>
+  </si>
+  <si>
+    <t>SO2335911</t>
+  </si>
+  <si>
+    <t>SO2335763</t>
+  </si>
+  <si>
+    <t>SO2336514</t>
+  </si>
+  <si>
+    <t>SO2335618</t>
+  </si>
+  <si>
+    <t>SO2335644</t>
+  </si>
+  <si>
+    <t>SO2335691</t>
+  </si>
+  <si>
+    <t>SO2335645</t>
+  </si>
+  <si>
+    <t>SO2346274</t>
+  </si>
+  <si>
+    <t>SO2335738</t>
+  </si>
+  <si>
+    <t>SO2337451</t>
+  </si>
+  <si>
+    <t>SO2335780</t>
+  </si>
+  <si>
+    <t>SO2335753</t>
+  </si>
+  <si>
+    <t>SO2335796</t>
+  </si>
+  <si>
+    <t>SO2335797</t>
+  </si>
+  <si>
+    <t>SO2335770</t>
+  </si>
+  <si>
+    <t>SO2349821</t>
+  </si>
+  <si>
+    <t>SO2335859</t>
+  </si>
+  <si>
+    <t>SO2335835</t>
+  </si>
+  <si>
+    <t>SO2335892</t>
+  </si>
+  <si>
+    <t>SO2335883</t>
+  </si>
+  <si>
+    <t>SO2335882</t>
+  </si>
+  <si>
+    <t>SO2336126</t>
+  </si>
+  <si>
+    <t>SO2336118</t>
+  </si>
+  <si>
+    <t>SO2336440</t>
+  </si>
+  <si>
+    <t>SO2336222</t>
+  </si>
+  <si>
+    <t>SO2336304</t>
+  </si>
+  <si>
+    <t>SO2336257</t>
+  </si>
+  <si>
+    <t>SO2336513</t>
+  </si>
+  <si>
+    <t>SO2336276</t>
+  </si>
+  <si>
+    <t>SO2337016</t>
+  </si>
+  <si>
+    <t>SO2336337</t>
+  </si>
+  <si>
+    <t>SO2336373</t>
+  </si>
+  <si>
+    <t>SO2336406</t>
+  </si>
+  <si>
+    <t>SO2339269</t>
+  </si>
+  <si>
+    <t>SO2336422</t>
+  </si>
+  <si>
+    <t>SO2347506</t>
+  </si>
+  <si>
+    <t>SO2336474</t>
+  </si>
+  <si>
+    <t>SO2336550</t>
+  </si>
+  <si>
+    <t>SO2336538</t>
+  </si>
+  <si>
+    <t>SO2336539</t>
+  </si>
+  <si>
+    <t>SO2336662</t>
+  </si>
+  <si>
+    <t>SO2336599</t>
+  </si>
+  <si>
+    <t>SO2336628</t>
+  </si>
+  <si>
+    <t>SO2336634</t>
+  </si>
+  <si>
+    <t>SO2340070</t>
+  </si>
+  <si>
+    <t>SO2337250</t>
+  </si>
+  <si>
+    <t>SO2336661</t>
+  </si>
+  <si>
+    <t>SO2336772</t>
+  </si>
+  <si>
+    <t>SO2336826</t>
+  </si>
+  <si>
+    <t>SO2351287</t>
+  </si>
+  <si>
+    <t>SO2336800</t>
+  </si>
+  <si>
+    <t>SO2336816</t>
+  </si>
+  <si>
+    <t>SO2336859</t>
+  </si>
+  <si>
+    <t>SO2337650</t>
+  </si>
+  <si>
+    <t>SO2336890</t>
+  </si>
+  <si>
+    <t>SO2343332</t>
+  </si>
+  <si>
+    <t>SO2337213</t>
+  </si>
+  <si>
+    <t>SO2337251</t>
+  </si>
+  <si>
+    <t>SO2337230</t>
+  </si>
+  <si>
+    <t>SO2341500</t>
+  </si>
+  <si>
+    <t>SO2337315</t>
+  </si>
+  <si>
+    <t>SO2337349</t>
+  </si>
+  <si>
+    <t>SO2337399</t>
+  </si>
+  <si>
+    <t>SO2337387</t>
+  </si>
+  <si>
+    <t>SO2337426</t>
+  </si>
+  <si>
+    <t>SO2337428</t>
+  </si>
+  <si>
+    <t>SO2337450</t>
+  </si>
+  <si>
+    <t>SO2337546</t>
+  </si>
+  <si>
+    <t>SO2337492</t>
+  </si>
+  <si>
+    <t>SO2337553</t>
+  </si>
+  <si>
+    <t>SO2337547</t>
+  </si>
+  <si>
+    <t>SO2338516</t>
+  </si>
+  <si>
+    <t>SO2337571</t>
+  </si>
+  <si>
+    <t>SO2337572</t>
+  </si>
+  <si>
+    <t>SO2338083</t>
+  </si>
+  <si>
+    <t>SO2337671</t>
+  </si>
+  <si>
+    <t>SO2337670</t>
+  </si>
+  <si>
+    <t>SO2337820</t>
+  </si>
+  <si>
+    <t>SO2340252</t>
+  </si>
+  <si>
+    <t>SO2337733</t>
+  </si>
+  <si>
+    <t>SO2337691</t>
+  </si>
+  <si>
+    <t>SO2337797</t>
+  </si>
+  <si>
+    <t>SO2337872</t>
+  </si>
+  <si>
+    <t>SO2337899</t>
+  </si>
+  <si>
+    <t>SO2337913</t>
+  </si>
+  <si>
+    <t>SO2337969</t>
+  </si>
+  <si>
+    <t>SO2337981</t>
+  </si>
+  <si>
+    <t>SO2349245</t>
+  </si>
+  <si>
+    <t>SO2339551</t>
+  </si>
+  <si>
+    <t>SO2338086</t>
+  </si>
+  <si>
+    <t>SO2338056</t>
+  </si>
+  <si>
+    <t>SO2338102</t>
+  </si>
+  <si>
+    <t>SO2338202</t>
+  </si>
+  <si>
+    <t>SO2338367</t>
+  </si>
+  <si>
+    <t>SO2338418</t>
+  </si>
+  <si>
+    <t>SO2341233</t>
+  </si>
+  <si>
+    <t>SO2338536</t>
+  </si>
+  <si>
+    <t>SO2338537</t>
+  </si>
+  <si>
+    <t>SO2338572</t>
+  </si>
+  <si>
+    <t>SO2338600</t>
+  </si>
+  <si>
+    <t>SO2340446</t>
+  </si>
+  <si>
+    <t>SO2338773</t>
+  </si>
+  <si>
+    <t>SO2338724</t>
+  </si>
+  <si>
+    <t>SO2338725</t>
+  </si>
+  <si>
+    <t>SO2338783</t>
+  </si>
+  <si>
+    <t>SO2338858</t>
+  </si>
+  <si>
+    <t>SO2338874</t>
+  </si>
+  <si>
+    <t>SO2338970</t>
+  </si>
+  <si>
+    <t>SO2339359</t>
+  </si>
+  <si>
+    <t>SO2338971</t>
+  </si>
+  <si>
+    <t>SO2338945</t>
+  </si>
+  <si>
+    <t>SO2339039</t>
+  </si>
+  <si>
+    <t>SO2338969</t>
+  </si>
+  <si>
+    <t>SO2339063</t>
+  </si>
+  <si>
+    <t>SO2339077</t>
+  </si>
+  <si>
+    <t>SO2339076</t>
+  </si>
+  <si>
+    <t>SO2339096</t>
+  </si>
+  <si>
+    <t>SO2339283</t>
+  </si>
+  <si>
+    <t>SO2340000</t>
+  </si>
+  <si>
+    <t>SO2339296</t>
+  </si>
+  <si>
+    <t>SO2339331</t>
+  </si>
+  <si>
+    <t>SO2339266</t>
+  </si>
+  <si>
+    <t>SO2339456</t>
+  </si>
+  <si>
+    <t>SO2339471</t>
+  </si>
+  <si>
+    <t>SO2339457</t>
+  </si>
+  <si>
+    <t>SO2339563</t>
+  </si>
+  <si>
+    <t>SO2339594</t>
+  </si>
+  <si>
+    <t>SO2339660</t>
+  </si>
+  <si>
+    <t>SO2339758</t>
+  </si>
+  <si>
+    <t>SO2339859</t>
+  </si>
+  <si>
+    <t>SO2339965</t>
+  </si>
+  <si>
+    <t>SO2342937</t>
+  </si>
+  <si>
+    <t>SO2340094</t>
+  </si>
+  <si>
+    <t>SO2340144</t>
+  </si>
+  <si>
+    <t>SO2340253</t>
+  </si>
+  <si>
+    <t>SO2340434</t>
+  </si>
+  <si>
+    <t>SO2366104</t>
+  </si>
+  <si>
+    <t>SO2340398</t>
+  </si>
+  <si>
+    <t>SO2342952</t>
+  </si>
+  <si>
+    <t>SO2340481</t>
+  </si>
+  <si>
+    <t>SO2340581</t>
+  </si>
+  <si>
+    <t>SO2340580</t>
+  </si>
+  <si>
+    <t>SO2342753</t>
+  </si>
+  <si>
+    <t>SO2340797</t>
+  </si>
+  <si>
+    <t>SO2340712</t>
+  </si>
+  <si>
+    <t>SO2340760</t>
+  </si>
+  <si>
+    <t>SO2342646</t>
+  </si>
+  <si>
+    <t>SO2340796</t>
+  </si>
+  <si>
+    <t>SO2340910</t>
+  </si>
+  <si>
+    <t>SO2341016</t>
+  </si>
+  <si>
+    <t>SO2341731</t>
+  </si>
+  <si>
+    <t>SO2341054</t>
+  </si>
+  <si>
+    <t>SO2341143</t>
+  </si>
+  <si>
+    <t>SO2341122</t>
+  </si>
+  <si>
+    <t>SO2341977</t>
+  </si>
+  <si>
+    <t>SO2341142</t>
+  </si>
+  <si>
+    <t>SO2341140</t>
+  </si>
+  <si>
+    <t>SO2341261</t>
+  </si>
+  <si>
+    <t>SO2341497</t>
+  </si>
+  <si>
+    <t>SO2343538</t>
+  </si>
+  <si>
+    <t>SO2341637</t>
+  </si>
+  <si>
+    <t>SO2341733</t>
+  </si>
+  <si>
+    <t>SO2341625</t>
+  </si>
+  <si>
+    <t>SO2341655</t>
+  </si>
+  <si>
+    <t>SO2342132</t>
+  </si>
+  <si>
+    <t>SO2341836</t>
+  </si>
+  <si>
+    <t>SO2341795</t>
+  </si>
+  <si>
+    <t>SO2344785</t>
+  </si>
+  <si>
+    <t>SO2341938</t>
+  </si>
+  <si>
+    <t>SO2341923</t>
+  </si>
+  <si>
+    <t>SO2342056</t>
+  </si>
+  <si>
+    <t>SO2341952</t>
+  </si>
+  <si>
+    <t>SO2345344</t>
+  </si>
+  <si>
+    <t>SO2342095</t>
+  </si>
+  <si>
+    <t>SO2342136</t>
+  </si>
+  <si>
+    <t>SO2354053</t>
+  </si>
+  <si>
+    <t>SO2342133</t>
+  </si>
+  <si>
+    <t>SO2342288</t>
+  </si>
+  <si>
+    <t>SO2342376</t>
+  </si>
+  <si>
+    <t>SO2342396</t>
+  </si>
+  <si>
+    <t>SO2342970</t>
+  </si>
+  <si>
+    <t>SO2342509</t>
+  </si>
+  <si>
+    <t>SO2342485</t>
+  </si>
+  <si>
+    <t>SO2344371</t>
+  </si>
+  <si>
+    <t>SO2342510</t>
+  </si>
+  <si>
+    <t>SO2343885</t>
+  </si>
+  <si>
+    <t>SO2342529</t>
+  </si>
+  <si>
+    <t>SO2342656</t>
+  </si>
+  <si>
+    <t>SO2342684</t>
+  </si>
+  <si>
+    <t>SO2342674</t>
+  </si>
+  <si>
+    <t>SO2342992</t>
+  </si>
+  <si>
+    <t>SO2342990</t>
+  </si>
+  <si>
+    <t>SO2343272</t>
+  </si>
+  <si>
+    <t>SO2343297</t>
+  </si>
+  <si>
+    <t>SO2366197</t>
+  </si>
+  <si>
+    <t>SO2362378</t>
+  </si>
+  <si>
+    <t>SO2343463</t>
+  </si>
+  <si>
+    <t>SO2343419</t>
+  </si>
+  <si>
+    <t>SO2343503</t>
+  </si>
+  <si>
+    <t>SO2343704</t>
+  </si>
+  <si>
+    <t>SO2343820</t>
+  </si>
+  <si>
+    <t>SO2343620</t>
+  </si>
+  <si>
+    <t>SO2348871</t>
+  </si>
+  <si>
+    <t>SO2343639</t>
+  </si>
+  <si>
+    <t>SO2343705</t>
+  </si>
+  <si>
+    <t>SO2343706</t>
+  </si>
+  <si>
+    <t>SO2343852</t>
+  </si>
+  <si>
+    <t>SO2345268</t>
+  </si>
+  <si>
+    <t>SO2343985</t>
+  </si>
+  <si>
+    <t>SO2343909</t>
+  </si>
+  <si>
+    <t>SO2344004</t>
+  </si>
+  <si>
+    <t>SO2344021</t>
+  </si>
+  <si>
+    <t>SO2345237</t>
+  </si>
+  <si>
+    <t>SO2344002</t>
+  </si>
+  <si>
+    <t>SO2344154</t>
+  </si>
+  <si>
+    <t>SO2344041</t>
+  </si>
+  <si>
+    <t>SO2346514</t>
+  </si>
+  <si>
+    <t>SO2344180</t>
+  </si>
+  <si>
+    <t>SO2344269</t>
+  </si>
+  <si>
+    <t>SO2344197</t>
+  </si>
+  <si>
+    <t>SO2344259</t>
+  </si>
+  <si>
+    <t>SO2344296</t>
+  </si>
+  <si>
+    <t>SO2344328</t>
+  </si>
+  <si>
+    <t>SO2344370</t>
+  </si>
+  <si>
+    <t>SO2344484</t>
+  </si>
+  <si>
+    <t>SO2344448</t>
+  </si>
+  <si>
+    <t>SO2344447</t>
+  </si>
+  <si>
+    <t>SO2344517</t>
+  </si>
+  <si>
+    <t>SO2344543</t>
+  </si>
+  <si>
+    <t>SO2344750</t>
+  </si>
+  <si>
+    <t>SO2361314</t>
+  </si>
+  <si>
+    <t>SO2344860</t>
+  </si>
+  <si>
+    <t>SO2344868</t>
+  </si>
+  <si>
+    <t>SO2345116</t>
+  </si>
+  <si>
+    <t>SO2345392</t>
+  </si>
+  <si>
+    <t>SO2345667</t>
+  </si>
+  <si>
+    <t>SO2345422</t>
+  </si>
+  <si>
+    <t>SO2345716</t>
+  </si>
+  <si>
+    <t>SO2345718</t>
+  </si>
+  <si>
+    <t>SO2345666</t>
+  </si>
+  <si>
+    <t>SO2345682</t>
+  </si>
+  <si>
+    <t>SO2368863</t>
+  </si>
+  <si>
+    <t>SO2345830</t>
+  </si>
+  <si>
+    <t>SO2346033</t>
+  </si>
+  <si>
+    <t>SO2345947</t>
+  </si>
+  <si>
+    <t>SO2346031</t>
+  </si>
+  <si>
+    <t>SO2345890</t>
+  </si>
+  <si>
+    <t>SO2346032</t>
+  </si>
+  <si>
+    <t>SO2346101</t>
+  </si>
+  <si>
+    <t>SO2346160</t>
+  </si>
+  <si>
+    <t>SO2348944</t>
+  </si>
+  <si>
+    <t>SO2346213</t>
+  </si>
+  <si>
+    <t>SO2346191</t>
+  </si>
+  <si>
+    <t>SO2346344</t>
+  </si>
+  <si>
+    <t>SO2346378</t>
+  </si>
+  <si>
+    <t>SO2346403</t>
+  </si>
+  <si>
+    <t>SO2346572</t>
+  </si>
+  <si>
+    <t>SO2346534</t>
+  </si>
+  <si>
+    <t>SO2346639</t>
+  </si>
+  <si>
+    <t>SO2346816</t>
+  </si>
+  <si>
+    <t>SO2346804</t>
+  </si>
+  <si>
+    <t>SO2346819</t>
+  </si>
+  <si>
+    <t>SO2346767</t>
+  </si>
+  <si>
+    <t>SO2346870</t>
+  </si>
+  <si>
+    <t>SO2346779</t>
+  </si>
+  <si>
+    <t>SO2346869</t>
+  </si>
+  <si>
+    <t>SO2346966</t>
+  </si>
+  <si>
+    <t>SO2347064</t>
+  </si>
+  <si>
+    <t>SO2347034</t>
+  </si>
+  <si>
+    <t>SO2347670</t>
+  </si>
+  <si>
+    <t>SO2347091</t>
+  </si>
+  <si>
+    <t>SO2349108</t>
+  </si>
+  <si>
+    <t>SO2347107</t>
+  </si>
+  <si>
+    <t>SO2359048</t>
+  </si>
+  <si>
+    <t>SO2347539</t>
+  </si>
+  <si>
+    <t>SO2347516</t>
+  </si>
+  <si>
+    <t>SO2347581</t>
+  </si>
+  <si>
+    <t>SO2347690</t>
+  </si>
+  <si>
+    <t>SO2347744</t>
+  </si>
+  <si>
+    <t>SO2350497</t>
+  </si>
+  <si>
+    <t>SO2347786</t>
+  </si>
+  <si>
+    <t>SO2347897</t>
+  </si>
+  <si>
+    <t>SO2359518</t>
+  </si>
+  <si>
+    <t>SO2347935</t>
+  </si>
+  <si>
+    <t>SO2359347</t>
+  </si>
+  <si>
+    <t>SO2348010</t>
+  </si>
+  <si>
+    <t>SO2348196</t>
+  </si>
+  <si>
+    <t>SO2348316</t>
+  </si>
+  <si>
+    <t>SO2348745</t>
+  </si>
+  <si>
+    <t>SO2348402</t>
+  </si>
+  <si>
+    <t>SO2348382</t>
+  </si>
+  <si>
+    <t>SO2355111</t>
+  </si>
+  <si>
+    <t>SO2348550</t>
+  </si>
+  <si>
+    <t>SO2353386</t>
+  </si>
+  <si>
+    <t>SO2349333</t>
+  </si>
+  <si>
+    <t>SO2348762</t>
+  </si>
+  <si>
+    <t>SO2348744</t>
+  </si>
+  <si>
+    <t>SO2349087</t>
+  </si>
+  <si>
+    <t>SO2348969</t>
+  </si>
+  <si>
+    <t>SO2348968</t>
+  </si>
+  <si>
+    <t>SO2348970</t>
+  </si>
+  <si>
+    <t>SO2349209</t>
+  </si>
+  <si>
+    <t>SO2349244</t>
+  </si>
+  <si>
+    <t>SO2349419</t>
+  </si>
+  <si>
+    <t>SO2349384</t>
+  </si>
+  <si>
+    <t>SO2349460</t>
+  </si>
+  <si>
+    <t>SO2349528</t>
+  </si>
+  <si>
+    <t>SO2352404</t>
+  </si>
+  <si>
+    <t>SO2350637</t>
+  </si>
+  <si>
+    <t>SO2349650</t>
+  </si>
+  <si>
+    <t>SO2349688</t>
+  </si>
+  <si>
+    <t>SO2349781</t>
+  </si>
+  <si>
+    <t>SO2349959</t>
+  </si>
+  <si>
+    <t>SO2349944</t>
+  </si>
+  <si>
+    <t>SO2350000</t>
+  </si>
+  <si>
+    <t>SO2352586</t>
+  </si>
+  <si>
+    <t>SO2350073</t>
+  </si>
+  <si>
+    <t>SO2350217</t>
+  </si>
+  <si>
+    <t>SO2350153</t>
+  </si>
+  <si>
+    <t>SO2350218</t>
+  </si>
+  <si>
+    <t>SO2350247</t>
+  </si>
+  <si>
+    <t>SO2357099</t>
+  </si>
+  <si>
+    <t>SO2350339</t>
+  </si>
+  <si>
+    <t>SO2350379</t>
+  </si>
+  <si>
+    <t>SO2350338</t>
+  </si>
+  <si>
+    <t>SO2350389</t>
+  </si>
+  <si>
+    <t>SO2350867</t>
+  </si>
+  <si>
+    <t>SO2350636</t>
+  </si>
+  <si>
+    <t>SO2350620</t>
+  </si>
+  <si>
+    <t>SO2350619</t>
+  </si>
+  <si>
+    <t>SO2350685</t>
+  </si>
+  <si>
+    <t>SO2350747</t>
+  </si>
+  <si>
+    <t>SO2350746</t>
+  </si>
+  <si>
+    <t>SO2350856</t>
+  </si>
+  <si>
+    <t>SO2350783</t>
+  </si>
+  <si>
+    <t>SO2351899</t>
+  </si>
+  <si>
+    <t>SO2350827</t>
+  </si>
+  <si>
+    <t>SO2350865</t>
+  </si>
+  <si>
+    <t>SO2350924</t>
+  </si>
+  <si>
+    <t>SO2351055</t>
+  </si>
+  <si>
+    <t>SO2351218</t>
+  </si>
+  <si>
+    <t>SO2351254</t>
+  </si>
+  <si>
+    <t>SO2352489</t>
+  </si>
+  <si>
+    <t>SO2351332</t>
+  </si>
+  <si>
+    <t>SO2351379</t>
+  </si>
+  <si>
+    <t>SO2351418</t>
+  </si>
+  <si>
+    <t>SO2351930</t>
+  </si>
+  <si>
+    <t>SO2351750</t>
+  </si>
+  <si>
+    <t>SO2351562</t>
+  </si>
+  <si>
+    <t>SO2353669</t>
+  </si>
+  <si>
+    <t>SO2353873</t>
+  </si>
+  <si>
+    <t>SO2351702</t>
+  </si>
+  <si>
+    <t>SO2351729</t>
+  </si>
+  <si>
+    <t>SO2351813</t>
+  </si>
+  <si>
+    <t>SO2351866</t>
+  </si>
+  <si>
+    <t>SO2351986</t>
+  </si>
+  <si>
+    <t>SO2351999</t>
+  </si>
+  <si>
+    <t>SO2351970</t>
+  </si>
+  <si>
+    <t>SO2351998</t>
+  </si>
+  <si>
+    <t>SO2352588</t>
+  </si>
+  <si>
+    <t>SO2352031</t>
+  </si>
+  <si>
+    <t>SO2352059</t>
+  </si>
+  <si>
+    <t>SO2352135</t>
+  </si>
+  <si>
+    <t>SO2352191</t>
+  </si>
+  <si>
+    <t>SO2352134</t>
+  </si>
+  <si>
+    <t>SO2352169</t>
+  </si>
+  <si>
+    <t>SO2352245</t>
+  </si>
+  <si>
+    <t>SO2352189</t>
+  </si>
+  <si>
+    <t>SO2352216</t>
+  </si>
+  <si>
+    <t>SO2352358</t>
+  </si>
+  <si>
+    <t>SO2352438</t>
+  </si>
+  <si>
+    <t>SO2352436</t>
+  </si>
+  <si>
+    <t>SO2352488</t>
+  </si>
+  <si>
+    <t>SO2352511</t>
+  </si>
+  <si>
+    <t>SO2352587</t>
+  </si>
+  <si>
+    <t>SO2358051</t>
+  </si>
+  <si>
+    <t>SO2352627</t>
+  </si>
+  <si>
+    <t>SO2352846</t>
+  </si>
+  <si>
+    <t>SO2352763</t>
+  </si>
+  <si>
+    <t>SO2352847</t>
+  </si>
+  <si>
+    <t>SO2352858</t>
+  </si>
+  <si>
+    <t>SO2352808</t>
+  </si>
+  <si>
+    <t>SO2353154</t>
+  </si>
+  <si>
+    <t>SO2352809</t>
+  </si>
+  <si>
+    <t>SO2352810</t>
+  </si>
+  <si>
+    <t>SO2352845</t>
+  </si>
+  <si>
+    <t>SO2352939</t>
+  </si>
+  <si>
+    <t>SO2353037</t>
+  </si>
+  <si>
+    <t>SO2352937</t>
+  </si>
+  <si>
+    <t>SO2352938</t>
+  </si>
+  <si>
+    <t>SO2353006</t>
+  </si>
+  <si>
+    <t>SO2353005</t>
+  </si>
+  <si>
+    <t>SO2353035</t>
+  </si>
+  <si>
+    <t>SO2353036</t>
+  </si>
+  <si>
+    <t>SO2353157</t>
+  </si>
+  <si>
+    <t>SO2353069</t>
+  </si>
+  <si>
+    <t>SO2353068</t>
+  </si>
+  <si>
+    <t>SO2355467</t>
+  </si>
+  <si>
+    <t>SO2353243</t>
+  </si>
+  <si>
+    <t>SO2356231</t>
+  </si>
+  <si>
+    <t>SO2353285</t>
+  </si>
+  <si>
+    <t>SO2353298</t>
+  </si>
+  <si>
+    <t>SO2353333</t>
+  </si>
+  <si>
+    <t>SO2353352</t>
+  </si>
+  <si>
+    <t>SO2353424</t>
+  </si>
+  <si>
+    <t>SO2353485</t>
+  </si>
+  <si>
+    <t>SO2358159</t>
+  </si>
+  <si>
+    <t>SO2353593</t>
+  </si>
+  <si>
+    <t>SO2353617</t>
+  </si>
+  <si>
+    <t>SO2355169</t>
+  </si>
+  <si>
+    <t>SO2353708</t>
+  </si>
+  <si>
+    <t>SO2353754</t>
+  </si>
+  <si>
+    <t>SO2353738</t>
+  </si>
+  <si>
+    <t>SO2353824</t>
+  </si>
+  <si>
+    <t>SO2357484</t>
+  </si>
+  <si>
+    <t>SO2353988</t>
+  </si>
+  <si>
+    <t>SO2353935</t>
+  </si>
+  <si>
+    <t>SO2353987</t>
+  </si>
+  <si>
+    <t>SO2353986</t>
+  </si>
+  <si>
+    <t>SO2354077</t>
+  </si>
+  <si>
+    <t>SO2354076</t>
+  </si>
+  <si>
+    <t>SO2354229</t>
+  </si>
+  <si>
+    <t>SO2354243</t>
+  </si>
+  <si>
+    <t>SO2354355</t>
+  </si>
+  <si>
+    <t>SO2354557</t>
+  </si>
+  <si>
+    <t>SO2354595</t>
+  </si>
+  <si>
+    <t>SO2354648</t>
+  </si>
+  <si>
+    <t>SO2354647</t>
+  </si>
+  <si>
+    <t>SO2354628</t>
+  </si>
+  <si>
+    <t>SO2354705</t>
+  </si>
+  <si>
+    <t>SO2354728</t>
+  </si>
+  <si>
+    <t>SO2354729</t>
+  </si>
+  <si>
+    <t>SO2354858</t>
+  </si>
+  <si>
+    <t>SO2354860</t>
+  </si>
+  <si>
+    <t>SO2355056</t>
+  </si>
+  <si>
+    <t>SO2366594</t>
+  </si>
+  <si>
+    <t>SO2355098</t>
+  </si>
+  <si>
+    <t>SO2355110</t>
+  </si>
+  <si>
+    <t>SO2355083</t>
+  </si>
+  <si>
+    <t>SO2355168</t>
+  </si>
+  <si>
+    <t>SO2355267</t>
+  </si>
+  <si>
+    <t>SO2355399</t>
+  </si>
+  <si>
+    <t>SO2355397</t>
+  </si>
+  <si>
+    <t>SO2355347</t>
+  </si>
+  <si>
+    <t>SO2355447</t>
+  </si>
+  <si>
+    <t>SO2355460</t>
+  </si>
+  <si>
+    <t>SO2355459</t>
+  </si>
+  <si>
+    <t>SO2355553</t>
+  </si>
+  <si>
+    <t>SO2355584</t>
+  </si>
+  <si>
+    <t>SO2355605</t>
+  </si>
+  <si>
+    <t>SO2355727</t>
+  </si>
+  <si>
+    <t>SO2355830</t>
+  </si>
+  <si>
+    <t>SO2355740</t>
+  </si>
+  <si>
+    <t>SO2355916</t>
+  </si>
+  <si>
+    <t>SO2355981</t>
+  </si>
+  <si>
+    <t>SO2355951</t>
+  </si>
+  <si>
+    <t>SO2369142</t>
+  </si>
+  <si>
+    <t>SO2355993</t>
+  </si>
+  <si>
+    <t>SO2356503</t>
+  </si>
+  <si>
+    <t>SO2356144</t>
+  </si>
+  <si>
+    <t>SO2365451</t>
+  </si>
+  <si>
+    <t>SO2356180</t>
+  </si>
+  <si>
+    <t>SO2356299</t>
+  </si>
+  <si>
+    <t>SO2356801</t>
+  </si>
+  <si>
+    <t>SO2356355</t>
+  </si>
+  <si>
+    <t>SO2356353</t>
+  </si>
+  <si>
+    <t>SO2356394</t>
+  </si>
+  <si>
+    <t>SO2356495</t>
+  </si>
+  <si>
+    <t>SO2356576</t>
+  </si>
+  <si>
+    <t>SO2356649</t>
+  </si>
+  <si>
+    <t>SO2356777</t>
+  </si>
+  <si>
+    <t>SO2356752</t>
+  </si>
+  <si>
+    <t>SO2356859</t>
+  </si>
+  <si>
+    <t>SO2356941</t>
+  </si>
+  <si>
+    <t>SO2356938</t>
+  </si>
+  <si>
+    <t>SO2357100</t>
+  </si>
+  <si>
+    <t>SO2357171</t>
+  </si>
+  <si>
+    <t>SO2357288</t>
+  </si>
+  <si>
+    <t>SO2357278</t>
+  </si>
+  <si>
+    <t>SO2357272</t>
+  </si>
+  <si>
+    <t>SO2357413</t>
+  </si>
+  <si>
+    <t>SO2357296</t>
+  </si>
+  <si>
+    <t>SO2357325</t>
+  </si>
+  <si>
+    <t>SO2357419</t>
+  </si>
+  <si>
+    <t>SO2357675</t>
+  </si>
+  <si>
+    <t>SO2357695</t>
+  </si>
+  <si>
+    <t>SO2365873</t>
+  </si>
+  <si>
+    <t>SO2357631</t>
+  </si>
+  <si>
+    <t>SO2357786</t>
+  </si>
+  <si>
+    <t>SO2357787</t>
+  </si>
+  <si>
+    <t>SO2357854</t>
+  </si>
+  <si>
+    <t>SO2357852</t>
+  </si>
+  <si>
+    <t>SO2358063</t>
+  </si>
+  <si>
+    <t>SO2358594</t>
+  </si>
+  <si>
+    <t>SO2358094</t>
+  </si>
+  <si>
+    <t>SO2358158</t>
+  </si>
+  <si>
+    <t>SO2358139</t>
+  </si>
+  <si>
+    <t>SO2358167</t>
+  </si>
+  <si>
+    <t>SO2358231</t>
+  </si>
+  <si>
+    <t>SO2358205</t>
+  </si>
+  <si>
+    <t>SO2358835</t>
+  </si>
+  <si>
+    <t>SO2358253</t>
+  </si>
+  <si>
+    <t>SO2358474</t>
+  </si>
+  <si>
+    <t>SO2358477</t>
+  </si>
+  <si>
+    <t>SO2358482</t>
+  </si>
+  <si>
+    <t>SO2358520</t>
+  </si>
+  <si>
+    <t>SO2358506</t>
+  </si>
+  <si>
+    <t>SO2358521</t>
+  </si>
+  <si>
+    <t>SO2360703</t>
+  </si>
+  <si>
+    <t>SO2358712</t>
+  </si>
+  <si>
+    <t>SO2358668</t>
+  </si>
+  <si>
+    <t>SO2361835</t>
+  </si>
+  <si>
+    <t>SO2358853</t>
+  </si>
+  <si>
+    <t>SO2358873</t>
+  </si>
+  <si>
+    <t>SO2358879</t>
+  </si>
+  <si>
+    <t>SO2359014</t>
+  </si>
+  <si>
+    <t>SO2359071</t>
+  </si>
+  <si>
+    <t>SO2359070</t>
+  </si>
+  <si>
+    <t>SO2359103</t>
+  </si>
+  <si>
+    <t>SO2359116</t>
+  </si>
+  <si>
+    <t>SO2359143</t>
+  </si>
+  <si>
+    <t>SO2359320</t>
+  </si>
+  <si>
+    <t>SO2359348</t>
+  </si>
+  <si>
+    <t>SO2359416</t>
+  </si>
+  <si>
+    <t>SO2359395</t>
+  </si>
+  <si>
+    <t>SO2359475</t>
+  </si>
+  <si>
+    <t>SO2359576</t>
+  </si>
+  <si>
+    <t>SO2359608</t>
+  </si>
+  <si>
+    <t>SO2359759</t>
+  </si>
+  <si>
+    <t>SO2359898</t>
+  </si>
+  <si>
+    <t>SO2360586</t>
+  </si>
+  <si>
+    <t>SO2359946</t>
+  </si>
+  <si>
+    <t>SO2359953</t>
+  </si>
+  <si>
+    <t>SO2359983</t>
+  </si>
+  <si>
+    <t>SO2359988</t>
+  </si>
+  <si>
+    <t>SO2360117</t>
+  </si>
+  <si>
+    <t>SO2360217</t>
+  </si>
+  <si>
+    <t>SO2360089</t>
+  </si>
+  <si>
+    <t>SO2369440</t>
+  </si>
+  <si>
+    <t>SO2360435</t>
+  </si>
+  <si>
+    <t>SO2360433</t>
+  </si>
+  <si>
+    <t>SO2360538</t>
+  </si>
+  <si>
+    <t>SO2362413</t>
+  </si>
+  <si>
+    <t>SO2360537</t>
+  </si>
+  <si>
+    <t>SO2360605</t>
+  </si>
+  <si>
+    <t>SO2360692</t>
+  </si>
+  <si>
+    <t>SO2360677</t>
+  </si>
+  <si>
+    <t>SO2360710</t>
+  </si>
+  <si>
+    <t>SO2370348</t>
+  </si>
+  <si>
+    <t>SO2360744</t>
+  </si>
+  <si>
+    <t>SO2360952</t>
+  </si>
+  <si>
+    <t>SO2360945</t>
+  </si>
+  <si>
+    <t>SO2361038</t>
+  </si>
+  <si>
+    <t>SO2361128</t>
+  </si>
+  <si>
+    <t>SO2361194</t>
+  </si>
+  <si>
+    <t>SO2361254</t>
+  </si>
+  <si>
+    <t>SO2361238</t>
+  </si>
+  <si>
+    <t>SO2361358</t>
+  </si>
+  <si>
+    <t>SO2361329</t>
+  </si>
+  <si>
+    <t>SO2362200</t>
+  </si>
+  <si>
+    <t>SO2361465</t>
+  </si>
+  <si>
+    <t>SO2361511</t>
+  </si>
+  <si>
+    <t>SO2361605</t>
+  </si>
+  <si>
+    <t>SO2363174</t>
+  </si>
+  <si>
+    <t>SO2361707</t>
+  </si>
+  <si>
+    <t>SO2361655</t>
+  </si>
+  <si>
+    <t>SO2361685</t>
+  </si>
+  <si>
+    <t>SO2361698</t>
+  </si>
+  <si>
+    <t>SO2361782</t>
+  </si>
+  <si>
+    <t>SO2363605</t>
+  </si>
+  <si>
+    <t>SO2364935</t>
+  </si>
+  <si>
+    <t>SO2365777</t>
+  </si>
+  <si>
+    <t>SO2362118</t>
+  </si>
+  <si>
+    <t>SO2363704</t>
+  </si>
+  <si>
+    <t>SO2362146</t>
+  </si>
+  <si>
+    <t>SO2362248</t>
+  </si>
+  <si>
+    <t>SO2362222</t>
+  </si>
+  <si>
+    <t>SO2362368</t>
+  </si>
+  <si>
+    <t>SO2362320</t>
+  </si>
+  <si>
+    <t>SO2362360</t>
+  </si>
+  <si>
+    <t>SO2362430</t>
+  </si>
+  <si>
+    <t>SO2362431</t>
+  </si>
+  <si>
+    <t>SO2362685</t>
+  </si>
+  <si>
+    <t>SO2362544</t>
+  </si>
+  <si>
+    <t>SO2362792</t>
+  </si>
+  <si>
+    <t>SO2362795</t>
+  </si>
+  <si>
+    <t>SO2362821</t>
+  </si>
+  <si>
+    <t>SO2365353</t>
+  </si>
+  <si>
+    <t>SO2369181</t>
+  </si>
+  <si>
+    <t>SO2362838</t>
+  </si>
+  <si>
+    <t>SO2362986</t>
+  </si>
+  <si>
+    <t>SO2369635</t>
+  </si>
+  <si>
+    <t>SO2362979</t>
+  </si>
+  <si>
+    <t>SO2362933</t>
+  </si>
+  <si>
+    <t>SO2363121</t>
+  </si>
+  <si>
+    <t>SO2363130</t>
+  </si>
+  <si>
+    <t>SO2363181</t>
+  </si>
+  <si>
+    <t>SO2363155</t>
+  </si>
+  <si>
+    <t>SO2363251</t>
+  </si>
+  <si>
+    <t>SO2363367</t>
+  </si>
+  <si>
+    <t>SO2365804</t>
+  </si>
+  <si>
+    <t>SO2363478</t>
+  </si>
+  <si>
+    <t>SO2363530</t>
+  </si>
+  <si>
+    <t>SO2363548</t>
+  </si>
+  <si>
+    <t>SO2363577</t>
+  </si>
+  <si>
+    <t>SO2363599</t>
+  </si>
+  <si>
+    <t>SO2363686</t>
+  </si>
+  <si>
+    <t>SO2363784</t>
+  </si>
+  <si>
+    <t>SO2363798</t>
+  </si>
+  <si>
+    <t>SO2365368</t>
+  </si>
+  <si>
+    <t>SO2363905</t>
+  </si>
+  <si>
+    <t>SO2364115</t>
+  </si>
+  <si>
+    <t>SO2363906</t>
+  </si>
+  <si>
+    <t>SO2367013</t>
+  </si>
+  <si>
+    <t>SO2364007</t>
+  </si>
+  <si>
+    <t>SO2363973</t>
+  </si>
+  <si>
+    <t>SO2365343</t>
+  </si>
+  <si>
+    <t>SO2363949</t>
+  </si>
+  <si>
+    <t>SO2364105</t>
+  </si>
+  <si>
+    <t>SO2363992</t>
+  </si>
+  <si>
+    <t>SO2363963</t>
+  </si>
+  <si>
+    <t>SO2363991</t>
+  </si>
+  <si>
+    <t>SO2364061</t>
+  </si>
+  <si>
+    <t>SO2364043</t>
+  </si>
+  <si>
+    <t>SO2365782</t>
+  </si>
+  <si>
+    <t>SO2364078</t>
+  </si>
+  <si>
+    <t>SO2364100</t>
+  </si>
+  <si>
+    <t>SO2364086</t>
+  </si>
+  <si>
+    <t>SO2364268</t>
+  </si>
+  <si>
+    <t>SO2364360</t>
+  </si>
+  <si>
+    <t>SO2364261</t>
+  </si>
+  <si>
+    <t>SO2364367</t>
+  </si>
+  <si>
+    <t>SO2364321</t>
+  </si>
+  <si>
+    <t>SO2365232</t>
+  </si>
+  <si>
+    <t>SO2364384</t>
+  </si>
+  <si>
+    <t>SO2364378</t>
+  </si>
+  <si>
+    <t>SO2364394</t>
+  </si>
+  <si>
+    <t>SO2364420</t>
+  </si>
+  <si>
+    <t>SO2364408</t>
+  </si>
+  <si>
+    <t>SO2364421</t>
+  </si>
+  <si>
+    <t>SO2366128</t>
+  </si>
+  <si>
+    <t>SO2364496</t>
+  </si>
+  <si>
+    <t>SO2364513</t>
+  </si>
+  <si>
+    <t>SO2364587</t>
+  </si>
+  <si>
+    <t>SO2364604</t>
+  </si>
+  <si>
+    <t>SO2364602</t>
+  </si>
+  <si>
+    <t>SO2364639</t>
+  </si>
+  <si>
+    <t>SO2364673</t>
+  </si>
+  <si>
+    <t>SO2364751</t>
+  </si>
+  <si>
+    <t>SO2364829</t>
+  </si>
+  <si>
+    <t>SO2367391</t>
+  </si>
+  <si>
+    <t>SO2364819</t>
+  </si>
+  <si>
+    <t>SO2364862</t>
+  </si>
+  <si>
+    <t>SO2364863</t>
+  </si>
+  <si>
+    <t>SO2364864</t>
+  </si>
+  <si>
+    <t>SO2364888</t>
+  </si>
+  <si>
+    <t>SO2364887</t>
+  </si>
+  <si>
+    <t>SO2364899</t>
+  </si>
+  <si>
+    <t>SO2364918</t>
+  </si>
+  <si>
+    <t>SO2364952</t>
+  </si>
+  <si>
+    <t>SO2364946</t>
+  </si>
+  <si>
+    <t>SO2364973</t>
+  </si>
+  <si>
+    <t>SO2364965</t>
+  </si>
+  <si>
+    <t>SO2364995</t>
+  </si>
+  <si>
+    <t>SO2364987</t>
+  </si>
+  <si>
+    <t>SO2365030</t>
+  </si>
+  <si>
+    <t>SO2365036</t>
+  </si>
+  <si>
+    <t>SO2365088</t>
+  </si>
+  <si>
+    <t>SO2365130</t>
+  </si>
+  <si>
+    <t>SO2365551</t>
+  </si>
+  <si>
+    <t>SO2365207</t>
+  </si>
+  <si>
+    <t>SO2365267</t>
+  </si>
+  <si>
+    <t>SO2365223</t>
+  </si>
+  <si>
+    <t>SO2365248</t>
+  </si>
+  <si>
+    <t>SO2365278</t>
+  </si>
+  <si>
+    <t>SO2365301</t>
+  </si>
+  <si>
+    <t>SO2365327</t>
+  </si>
+  <si>
+    <t>SO2365535</t>
+  </si>
+  <si>
+    <t>SO2365395</t>
+  </si>
+  <si>
+    <t>SO2365370</t>
+  </si>
+  <si>
+    <t>SO2365449</t>
+  </si>
+  <si>
+    <t>SO2365450</t>
+  </si>
+  <si>
+    <t>SO2365584</t>
+  </si>
+  <si>
+    <t>SO2365500</t>
+  </si>
+  <si>
+    <t>SO2365502</t>
+  </si>
+  <si>
+    <t>SO2365919</t>
+  </si>
+  <si>
+    <t>SO2365558</t>
+  </si>
+  <si>
+    <t>SO2365550</t>
+  </si>
+  <si>
+    <t>SO2365568</t>
+  </si>
+  <si>
+    <t>SO2365574</t>
+  </si>
+  <si>
+    <t>SO2365556</t>
+  </si>
+  <si>
+    <t>SO2366444</t>
+  </si>
+  <si>
+    <t>SO2365642</t>
+  </si>
+  <si>
+    <t>SO2365628</t>
+  </si>
+  <si>
+    <t>SO2365665</t>
+  </si>
+  <si>
+    <t>SO2370686</t>
+  </si>
+  <si>
+    <t>SO2365694</t>
+  </si>
+  <si>
+    <t>SO2365680</t>
+  </si>
+  <si>
+    <t>SO2365757</t>
+  </si>
+  <si>
+    <t>SO2365708</t>
+  </si>
+  <si>
+    <t>SO2365728</t>
+  </si>
+  <si>
+    <t>SO2368061</t>
+  </si>
+  <si>
+    <t>SO2365789</t>
+  </si>
+  <si>
+    <t>SO2366803</t>
+  </si>
+  <si>
+    <t>SO2366014</t>
+  </si>
+  <si>
+    <t>SO2365867</t>
+  </si>
+  <si>
+    <t>SO2365877</t>
+  </si>
+  <si>
+    <t>SO2365922</t>
+  </si>
+  <si>
+    <t>SO2365936</t>
+  </si>
+  <si>
+    <t>SO2365967</t>
+  </si>
+  <si>
+    <t>SO2366173</t>
+  </si>
+  <si>
+    <t>SO2366369</t>
+  </si>
+  <si>
+    <t>SO2366601</t>
+  </si>
+  <si>
+    <t>SO2366213</t>
+  </si>
+  <si>
+    <t>SO2366196</t>
+  </si>
+  <si>
+    <t>SO2366287</t>
+  </si>
+  <si>
+    <t>SO2367227</t>
+  </si>
+  <si>
+    <t>SO2367474</t>
+  </si>
+  <si>
+    <t>SO2366432</t>
+  </si>
+  <si>
+    <t>SO2366433</t>
+  </si>
+  <si>
+    <t>SO2367152</t>
+  </si>
+  <si>
+    <t>SO2366623</t>
+  </si>
+  <si>
+    <t>SO2366646</t>
+  </si>
+  <si>
+    <t>SO2366696</t>
+  </si>
+  <si>
+    <t>SO2369436</t>
+  </si>
+  <si>
+    <t>SO2366682</t>
+  </si>
+  <si>
+    <t>SO2366750</t>
+  </si>
+  <si>
+    <t>SO2366716</t>
+  </si>
+  <si>
+    <t>SO2366866</t>
+  </si>
+  <si>
+    <t>SO2366810</t>
+  </si>
+  <si>
+    <t>SO2368978</t>
+  </si>
+  <si>
+    <t>SO2368927</t>
+  </si>
+  <si>
+    <t>SO2366939</t>
+  </si>
+  <si>
+    <t>SO2367279</t>
+  </si>
+  <si>
+    <t>SO2367052</t>
+  </si>
+  <si>
+    <t>SO2367108</t>
+  </si>
+  <si>
+    <t>SO2367131</t>
+  </si>
+  <si>
+    <t>SO2367160</t>
+  </si>
+  <si>
+    <t>SO2367236</t>
+  </si>
+  <si>
+    <t>SO2367207</t>
+  </si>
+  <si>
+    <t>SO2367246</t>
+  </si>
+  <si>
+    <t>SO2367334</t>
+  </si>
+  <si>
+    <t>SO2367403</t>
+  </si>
+  <si>
+    <t>SO2367392</t>
+  </si>
+  <si>
+    <t>SO2367364</t>
+  </si>
+  <si>
+    <t>SO2367452</t>
+  </si>
+  <si>
+    <t>SO2367418</t>
+  </si>
+  <si>
+    <t>SO2367540</t>
+  </si>
+  <si>
+    <t>SO2367659</t>
+  </si>
+  <si>
+    <t>SO2367681</t>
+  </si>
+  <si>
+    <t>SO2367658</t>
+  </si>
+  <si>
+    <t>SO2367734</t>
+  </si>
+  <si>
+    <t>SO2367778</t>
+  </si>
+  <si>
+    <t>SO2367893</t>
+  </si>
+  <si>
+    <t>SO2367974</t>
+  </si>
+  <si>
+    <t>SO2368101</t>
+  </si>
+  <si>
+    <t>SO2368060</t>
+  </si>
+  <si>
+    <t>SO2368150</t>
+  </si>
+  <si>
+    <t>SO2368261</t>
+  </si>
+  <si>
+    <t>SO2368286</t>
+  </si>
+  <si>
+    <t>SO2368430</t>
+  </si>
+  <si>
+    <t>SO2368518</t>
+  </si>
+  <si>
+    <t>SO2368530</t>
+  </si>
+  <si>
+    <t>SO2368537</t>
+  </si>
+  <si>
+    <t>SO2368580</t>
+  </si>
+  <si>
+    <t>SO2368754</t>
+  </si>
+  <si>
+    <t>SO2370240</t>
+  </si>
+  <si>
+    <t>SO2368919</t>
+  </si>
+  <si>
+    <t>SO2368901</t>
+  </si>
+  <si>
+    <t>SO2368933</t>
+  </si>
+  <si>
+    <t>SO2368995</t>
+  </si>
+  <si>
+    <t>SO2368952</t>
+  </si>
+  <si>
+    <t>SO2368996</t>
+  </si>
+  <si>
+    <t>SO2369079</t>
+  </si>
+  <si>
+    <t>SO2370454</t>
+  </si>
+  <si>
+    <t>SO2369069</t>
+  </si>
+  <si>
+    <t>SO2369190</t>
+  </si>
+  <si>
+    <t>SO2369169</t>
+  </si>
+  <si>
+    <t>SO2369182</t>
+  </si>
+  <si>
+    <t>SO2369946</t>
+  </si>
+  <si>
+    <t>SO2370237</t>
+  </si>
+  <si>
+    <t>SO2369224</t>
+  </si>
+  <si>
+    <t>SO2369271</t>
+  </si>
+  <si>
+    <t>SO2369418</t>
+  </si>
+  <si>
+    <t>SO2369444</t>
+  </si>
+  <si>
+    <t>SO2369484</t>
+  </si>
+  <si>
+    <t>SO2369666</t>
+  </si>
+  <si>
+    <t>SO2369518</t>
+  </si>
+  <si>
+    <t>SO2369583</t>
+  </si>
+  <si>
+    <t>SO2369596</t>
+  </si>
+  <si>
+    <t>SO2369910</t>
+  </si>
+  <si>
+    <t>SO2369665</t>
+  </si>
+  <si>
+    <t>SO2369664</t>
+  </si>
+  <si>
+    <t>SO2369703</t>
+  </si>
+  <si>
+    <t>SO2369752</t>
+  </si>
+  <si>
+    <t>SO2369701</t>
+  </si>
+  <si>
+    <t>SO2369751</t>
+  </si>
+  <si>
+    <t>SO2369767</t>
+  </si>
+  <si>
+    <t>SO2369817</t>
+  </si>
+  <si>
+    <t>SO2369846</t>
+  </si>
+  <si>
+    <t>SO2369945</t>
+  </si>
+  <si>
+    <t>SO2369944</t>
+  </si>
+  <si>
+    <t>SO2370126</t>
+  </si>
+  <si>
+    <t>SO2370174</t>
+  </si>
+  <si>
+    <t>SO2370299</t>
+  </si>
+  <si>
+    <t>SO2370300</t>
+  </si>
+  <si>
+    <t>SO2370385</t>
+  </si>
+  <si>
+    <t>SO2370377</t>
+  </si>
+  <si>
+    <t>SO2370396</t>
+  </si>
+  <si>
+    <t>SO2370423</t>
+  </si>
+  <si>
+    <t>SO2370436</t>
+  </si>
+  <si>
+    <t>SO2371259</t>
+  </si>
+  <si>
+    <t>SO2370491</t>
+  </si>
+  <si>
+    <t>SO2370578</t>
+  </si>
+  <si>
+    <t>SO2370618</t>
+  </si>
+  <si>
+    <t>SO2370698</t>
+  </si>
+  <si>
+    <t>SO2370753</t>
+  </si>
+  <si>
+    <t>SO2370799</t>
+  </si>
+  <si>
+    <t>SO2371162</t>
+  </si>
+  <si>
+    <t>SO2371353</t>
+  </si>
+  <si>
+    <t>SO2371377</t>
+  </si>
+  <si>
+    <t>SO2371575</t>
+  </si>
+  <si>
+    <t>SO2371873</t>
+  </si>
+  <si>
+    <t>SO2371589</t>
+  </si>
+  <si>
+    <t>SO2371601</t>
+  </si>
+  <si>
+    <t>SO2371909</t>
+  </si>
+  <si>
+    <t>SO2371920</t>
+  </si>
+  <si>
+    <t>SO2371954</t>
+  </si>
+  <si>
+    <t>SO2371934</t>
+  </si>
+  <si>
+    <t>SO2372008</t>
   </si>
 </sst>
 </file>
@@ -3352,9 +3274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD2571-4B9C-4A12-8B76-CF0D7D405277}">
-  <dimension ref="A1:A992"/>
+  <dimension ref="A1:A966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A966"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8188,136 +8112,6 @@
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>991</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
